--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD37EAD-83EB-49C8-B296-2E3D4F7485A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692516F-34E6-4B11-BF20-B9864F34A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="1" activeTab="12" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="12915" yWindow="-17670" windowWidth="19200" windowHeight="14505" tabRatio="796" firstSheet="1" activeTab="12" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -1971,7 +1971,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,7 +2103,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2191,7 +2191,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,7 +2235,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2467,9 +2467,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2525,9 +2525,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2583,9 +2583,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2641,9 +2641,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2699,9 +2699,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2762,7 +2762,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1314450</xdr:colOff>
+          <xdr:colOff>1304925</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -3584,7 +3584,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -4682,7 +4682,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -5269,7 +5269,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6323,7 +6323,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>847725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6908,7 +6908,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7027,7 +7027,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -8083,7 +8083,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8144,7 +8144,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8323,7 +8323,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8502,7 +8502,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8918,7 +8918,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -9213,7 +9213,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -9450,7 +9450,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10252,52 +10252,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10327,52 +10327,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10448,18 +10448,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10468,7 +10468,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10498,18 +10498,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10518,7 +10518,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10575,44 +10575,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10620,7 +10595,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10650,44 +10650,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10695,7 +10670,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10879,52 +10879,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10954,52 +10954,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11377,18 +11377,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11397,7 +11397,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11427,18 +11427,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11447,7 +11447,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11528,18 +11528,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11548,57 +11573,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11628,43 +11628,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11673,32 +11648,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12291,43 +12291,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12336,32 +12311,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12391,18 +12391,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12411,57 +12436,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12739,18 +12739,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12759,57 +12784,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12839,43 +12839,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12884,32 +12859,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14589,8 +14589,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14609,182 +14784,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14933,8 +14933,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -14953,82 +15028,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15102,8 +15102,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15122,232 +15347,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15411,8 +15411,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15431,182 +15606,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15681,8 +15681,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15701,232 +15926,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16013,8 +16013,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16033,232 +16258,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16335,8 +16335,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16355,182 +16530,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16616,8 +16616,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16636,232 +16861,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19862,8 +19862,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -19882,32 +19907,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19968,18 +19968,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -19988,7 +19988,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20018,18 +20018,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20038,7 +20038,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20199,18 +20199,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20219,7 +20219,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20249,18 +20249,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20269,7 +20269,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20342,18 +20342,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20362,7 +20362,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20392,18 +20392,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20412,7 +20412,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692516F-34E6-4B11-BF20-B9864F34A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EE6CD-C006-4CC2-B737-8B1577EE194A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="-17670" windowWidth="19200" windowHeight="14505" tabRatio="796" firstSheet="1" activeTab="12" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="1020" yWindow="1125" windowWidth="25635" windowHeight="14475" tabRatio="796" firstSheet="3" activeTab="14" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -45,6 +45,7 @@
   <externalReferences>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -53,6 +54,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -140,6 +142,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ken Noble</author>
+    <author>tc={B2628858-B6B6-4838-9180-F4C75E4FE2C9}</author>
   </authors>
   <commentList>
     <comment ref="G7" authorId="0" shapeId="0" xr:uid="{56927B7D-45CD-47C9-AF27-D646A28268EF}">
@@ -156,6 +159,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="T9" authorId="1" shapeId="0" xr:uid="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Interpolation and forward extrapolation</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -164,7 +175,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ken Noble</author>
-    <author>tc={6F48A735-E7A4-4E3B-9DB2-ED345CC7463B}</author>
   </authors>
   <commentList>
     <comment ref="G7" authorId="0" shapeId="0" xr:uid="{42F3C82C-C9E7-4235-AE01-45029F718422}">
@@ -179,14 +189,6 @@
           <t>If Process Activity is: Output-based, leave blank.
 Input-based, insert I.</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{6F48A735-E7A4-4E3B-9DB2-ED345CC7463B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Assumption, this needs to be researched and updated at some point.</t>
       </text>
     </comment>
   </commentList>
@@ -267,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="234">
   <si>
     <t>Comment</t>
   </si>
@@ -933,20 +935,57 @@
     <t>NOT ADDED YET</t>
   </si>
   <si>
-    <t>DDP BIICS work</t>
+    <t>Mtons</t>
+  </si>
+  <si>
+    <t>2017 Output (SATIM PJ) - only Sasolburg considered</t>
+  </si>
+  <si>
+    <t>2017 Actual Output Mtons</t>
+  </si>
+  <si>
+    <t>2017 Output (CGE) including Secunda</t>
+  </si>
+  <si>
+    <t>mton</t>
+  </si>
+  <si>
+    <t>Target Export</t>
+  </si>
+  <si>
+    <t>bR</t>
+  </si>
+  <si>
+    <t>2017 Exports (CGE)</t>
+  </si>
+  <si>
+    <t>2017 Exports (SATIM)</t>
+  </si>
+  <si>
+    <t>2017 Production (including Secunda)</t>
+  </si>
+  <si>
+    <t>2017 Domestic Use</t>
+  </si>
+  <si>
+    <t>We may be able to go up</t>
+  </si>
+  <si>
+    <t>BIICS x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="&quot;R&quot;#,##0.00000;[Red]\-&quot;R&quot;#,##0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -1531,7 +1570,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1813,7 +1852,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1827,6 +1865,8 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1971,7 +2011,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,7 +2143,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2191,7 +2231,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,7 +2275,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3984,6 +4024,55 @@
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>766</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="2105025"/>
+          <a:ext cx="5487166" cy="2243450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -4026,7 +4115,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4495,7 +4584,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4732,7 +4821,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5317,7 +5406,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5786,7 +5875,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6334,591 +6423,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-00000AE80000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60418" name="cmdSpecifyParameter" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60418"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60419" name="cmdSpecifyArg1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60419"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60420" name="cmdSpecifyArg2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60420"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60421" name="cmdSpecifyArg3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60421"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60422" name="cmdSpecifyArg4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60422"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60423" name="cmdSpecifyArg5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60423"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000007EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60424" name="cmdSpecifyArg6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60424"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000008EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60425" name="cmdSpecifyIEOptcode" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60425"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000009EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60426" name="cmdCheckTSTradeSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60426"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000AEC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60427" name="cmdPopulateDataYears" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60427"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000BEC0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7083,6 +6587,591 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60418" name="cmdSpecifyParameter" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60418"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60419" name="cmdSpecifyArg1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60419"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60420" name="cmdSpecifyArg2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60420"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60421" name="cmdSpecifyArg3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60421"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60422" name="cmdSpecifyArg4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60422"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60423" name="cmdSpecifyArg5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60423"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000007EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60424" name="cmdSpecifyArg6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60424"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000008EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60425" name="cmdSpecifyIEOptcode" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60425"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000009EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60426" name="cmdCheckTSTradeSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60426"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000AEC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60427" name="cmdPopulateDataYears" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60427"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000BEC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
@@ -7546,7 +7635,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9738,7 +9827,13 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="E8">
+            <v>28</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -9803,6 +9898,80 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ANSv2-692-Home"/>
+      <sheetName val="Index"/>
+      <sheetName val="RES"/>
+      <sheetName val="EB_Exist"/>
+      <sheetName val="ANSv2-692-REGIONS"/>
+      <sheetName val="ANSv2-692-Commodities"/>
+      <sheetName val="Commodities_BASE"/>
+      <sheetName val="ANSv2-692-Processes"/>
+      <sheetName val="ANSv2-692-Constraints"/>
+      <sheetName val="ANSv2-692-CommData"/>
+      <sheetName val="CommData_BASE"/>
+      <sheetName val="Processes_BASE"/>
+      <sheetName val="ANSv2-692-ProcData"/>
+      <sheetName val="ProcData_Demands"/>
+      <sheetName val="ProcData_NH3"/>
+      <sheetName val="ANSv2-692-ConstrData"/>
+      <sheetName val="ANSv2-692-ITEMS"/>
+      <sheetName val="ANSv2-692-TS DATA"/>
+      <sheetName val="ANSv2-692-TID DATA"/>
+      <sheetName val="ANSv2-692-TS&amp;TID DATA"/>
+      <sheetName val="ANSv2-692-TS TRADE"/>
+      <sheetName val="ANSv2-692-TID TRADE"/>
+      <sheetName val="ANSv2-692-TS&amp;TID TRADE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="F4">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>6.1380000000000008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="8">
+          <cell r="E8">
+            <v>6.1380000000000008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10179,8 +10348,8 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I11" dT="2021-09-09T14:02:02.26" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{6F48A735-E7A4-4E3B-9DB2-ED345CC7463B}">
-    <text>Assumption, this needs to be researched and updated at some point.</text>
+  <threadedComment ref="T9" dT="2021-09-22T07:45:53.23" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
+    <text>Interpolation and forward extrapolation</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -10252,52 +10421,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10327,52 +10496,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10448,18 +10617,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10468,7 +10637,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10498,18 +10667,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10518,7 +10687,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10575,19 +10744,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10595,32 +10789,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10650,19 +10819,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -10670,32 +10864,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10879,52 +11048,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10954,52 +11123,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11013,8 +11182,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11115,7 +11284,7 @@
         <f>[1]RES!T11</f>
         <v>Ammonia to Export Market</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="179" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="171" t="s">
@@ -11130,7 +11299,7 @@
       <c r="C12" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="179" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="171" t="s">
@@ -11377,18 +11546,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11397,7 +11566,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11427,18 +11596,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11447,7 +11616,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11528,43 +11697,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11573,32 +11717,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11628,18 +11797,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -11648,57 +11842,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11712,8 +11881,8 @@
   </sheetPr>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11725,8 +11894,8 @@
     <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
-    <col min="8" max="19" width="9.140625" style="12"/>
-    <col min="20" max="20" width="11.42578125" style="12" customWidth="1"/>
+    <col min="8" max="18" width="9.140625" style="12"/>
+    <col min="19" max="20" width="11.42578125" style="12" customWidth="1"/>
     <col min="21" max="21" width="10.85546875" style="12" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="12"/>
   </cols>
@@ -11785,7 +11954,7 @@
         <v>127</v>
       </c>
       <c r="N4" s="170" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O4" s="170" t="s">
         <v>187</v>
@@ -11803,7 +11972,7 @@
         <v>187</v>
       </c>
       <c r="T4" s="170" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U4" s="170" t="s">
         <v>188</v>
@@ -11935,26 +12104,26 @@
       <c r="M7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="P7" s="12">
+        <v>2014</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>2015</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2016</v>
+      </c>
+      <c r="S7" s="12">
+        <v>2017</v>
+      </c>
+      <c r="T7" s="12">
         <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>2012</v>
-      </c>
-      <c r="P7" s="12">
-        <v>2013</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>2014</v>
-      </c>
-      <c r="R7" s="12">
-        <v>2015</v>
-      </c>
-      <c r="S7" s="12">
-        <v>2016</v>
-      </c>
-      <c r="T7" s="12">
-        <v>2017</v>
       </c>
       <c r="U7" s="12">
         <v>2017</v>
@@ -12018,58 +12187,58 @@
       <c r="J9" s="12">
         <v>1</v>
       </c>
-      <c r="N9" s="12">
-        <v>1</v>
-      </c>
-      <c r="O9" s="169">
+      <c r="N9" s="169">
         <f>'Exports summary'!G7</f>
         <v>124.69952392131813</v>
       </c>
-      <c r="P9" s="169">
+      <c r="O9" s="169">
         <f>'Exports summary'!H7</f>
         <v>130.71131620168498</v>
       </c>
-      <c r="Q9" s="169">
+      <c r="P9" s="169">
         <f>'Exports summary'!I7</f>
         <v>84.02169487089688</v>
       </c>
-      <c r="R9" s="169">
+      <c r="Q9" s="169">
         <f>'Exports summary'!J7</f>
         <v>133.92546693812523</v>
       </c>
-      <c r="S9" s="169">
+      <c r="R9" s="169">
         <f>'Exports summary'!K7</f>
         <v>127.71131620168498</v>
       </c>
-      <c r="T9" s="169">
+      <c r="S9" s="169">
         <f>'Exports summary'!L7</f>
         <v>125.30659928953824</v>
       </c>
+      <c r="T9" s="169">
+        <v>5</v>
+      </c>
       <c r="U9" s="169">
-        <f>T9</f>
+        <f>S9</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="V9" s="188">
+      <c r="V9" s="187">
         <f>'Exports summary'!O7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="W9" s="188">
+      <c r="W9" s="187">
         <f>'Exports summary'!P7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="X9" s="188">
+      <c r="X9" s="187">
         <f>'Exports summary'!Q7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="Y9" s="188">
+      <c r="Y9" s="187">
         <f>'Exports summary'!R7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="Z9" s="188">
+      <c r="Z9" s="187">
         <f>'Exports summary'!S7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="AA9" s="188">
+      <c r="AA9" s="187">
         <f>'Exports summary'!T7</f>
         <v>125.30659928953824</v>
       </c>
@@ -12104,58 +12273,58 @@
       <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="169">
+      <c r="N10" s="169">
         <f>'Exports summary'!G8</f>
         <v>101.30047607868187</v>
       </c>
-      <c r="P10" s="169">
+      <c r="O10" s="169">
         <f>'Exports summary'!H8</f>
         <v>105.28868379831502</v>
       </c>
-      <c r="Q10" s="169">
+      <c r="P10" s="169">
         <f>'Exports summary'!I8</f>
         <v>74.97830512910312</v>
       </c>
-      <c r="R10" s="169">
+      <c r="Q10" s="169">
         <f>'Exports summary'!J8</f>
         <v>110.07453306187479</v>
       </c>
-      <c r="S10" s="169">
+      <c r="R10" s="169">
         <f>'Exports summary'!K8</f>
         <v>105.28868379831502</v>
       </c>
-      <c r="T10" s="169">
+      <c r="S10" s="169">
         <f>'Exports summary'!L8</f>
         <v>103.69340071046176</v>
       </c>
+      <c r="T10" s="169">
+        <v>5</v>
+      </c>
       <c r="U10" s="169">
-        <f>T10</f>
+        <f>S10</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="V10" s="188">
+      <c r="V10" s="187">
         <f>'Exports summary'!O8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="W10" s="188">
+      <c r="W10" s="187">
         <f>'Exports summary'!P8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="X10" s="188">
+      <c r="X10" s="187">
         <f>'Exports summary'!Q8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="Y10" s="188">
+      <c r="Y10" s="187">
         <f>'Exports summary'!R8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="Z10" s="188">
+      <c r="Z10" s="187">
         <f>'Exports summary'!S8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="AA10" s="188">
+      <c r="AA10" s="187">
         <f>'Exports summary'!T8</f>
         <v>103.69340071046176</v>
       </c>
@@ -12190,35 +12359,32 @@
       <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="12">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="190" t="str">
+      <c r="T11" s="12">
+        <v>5</v>
+      </c>
+      <c r="V11" s="189" t="str">
         <f>'Exports summary'!O11</f>
         <v/>
       </c>
-      <c r="W11" s="189" t="str">
+      <c r="W11" s="189">
         <f>'Exports summary'!P16</f>
-        <v/>
-      </c>
-      <c r="X11" s="189" t="str">
+        <v>2.7578253706754534</v>
+      </c>
+      <c r="X11" s="188" t="str">
         <f>'Exports summary'!Q16</f>
         <v/>
       </c>
-      <c r="Y11" s="189" t="str">
+      <c r="Y11" s="188" t="str">
         <f>'Exports summary'!R16</f>
         <v/>
       </c>
-      <c r="Z11" s="189" t="str">
+      <c r="Z11" s="188" t="str">
         <f>'Exports summary'!S16</f>
         <v/>
       </c>
-      <c r="AA11" s="189" t="str">
+      <c r="AA11" s="188">
         <f>'Exports summary'!T16</f>
-        <v/>
+        <v>124.155</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12251,35 +12417,32 @@
       <c r="M12" s="12">
         <v>1</v>
       </c>
-      <c r="N12" s="12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="189" t="str">
+      <c r="T12" s="12">
+        <v>5</v>
+      </c>
+      <c r="V12" s="188" t="str">
         <f>'Exports summary'!O11</f>
         <v/>
       </c>
-      <c r="W12" s="189">
+      <c r="W12" s="188">
         <f>'Exports summary'!P11</f>
         <v>1</v>
       </c>
-      <c r="X12" s="189" t="str">
+      <c r="X12" s="188" t="str">
         <f>'Exports summary'!Q11</f>
         <v/>
       </c>
-      <c r="Y12" s="189" t="str">
+      <c r="Y12" s="188" t="str">
         <f>'Exports summary'!R11</f>
         <v/>
       </c>
-      <c r="Z12" s="189" t="str">
+      <c r="Z12" s="188" t="str">
         <f>'Exports summary'!S11</f>
         <v/>
       </c>
-      <c r="AA12" s="189">
+      <c r="AA12" s="188">
         <f>'Exports summary'!T11</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -12291,18 +12454,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12311,57 +12499,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12391,43 +12554,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12436,32 +12574,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12476,7 +12639,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12701,9 +12864,7 @@
       <c r="H11" s="12">
         <v>0</v>
       </c>
-      <c r="I11" s="179">
-        <v>-150</v>
-      </c>
+      <c r="I11" s="169"/>
     </row>
     <row r="12" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="str">
@@ -12739,43 +12900,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12784,32 +12920,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12839,18 +13000,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12859,57 +13045,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12925,7 +13086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13000,7 +13161,7 @@
       <c r="O2" s="157"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="184" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="135" t="str">
@@ -13087,27 +13248,27 @@
         <f>'[2]PGM methodology'!L23</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="O7" s="187">
+      <c r="O7" s="186">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7)="","",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7))</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="P7" s="187">
+      <c r="P7" s="186">
         <f>IF(SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7)="","",SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7))</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="Q7" s="187">
+      <c r="Q7" s="186">
         <f>IF(SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7)="","",SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7))</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="R7" s="187">
+      <c r="R7" s="186">
         <f>IF(SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7)="","",SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7))</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="S7" s="187">
+      <c r="S7" s="186">
         <f>IF(SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7)="","",SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7))</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="T7" s="187">
+      <c r="T7" s="186">
         <f>IF(SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7)="","",SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D7))</f>
         <v>125.30659928953824</v>
       </c>
@@ -13146,27 +13307,27 @@
         <f>'[2]PGM methodology'!L24</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="O8" s="187">
+      <c r="O8" s="186">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8)="","",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8))</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="P8" s="187">
+      <c r="P8" s="186">
         <f>IF(SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8)="","",SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8))</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="Q8" s="187">
+      <c r="Q8" s="186">
         <f>IF(SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8)="","",SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8))</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="R8" s="187">
+      <c r="R8" s="186">
         <f>IF(SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8)="","",SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8))</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="S8" s="187">
+      <c r="S8" s="186">
         <f>IF(SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8)="","",SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8))</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="T8" s="187">
+      <c r="T8" s="186">
         <f>IF(SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8)="","",SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D8))</f>
         <v>103.69340071046176</v>
       </c>
@@ -13198,29 +13359,29 @@
       <c r="F11" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="O11" s="187" t="str">
+      <c r="O11" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
         <v/>
       </c>
-      <c r="P11" s="187">
+      <c r="P11" s="186">
         <f>IF(SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="187" t="str">
+      <c r="Q11" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
         <v/>
       </c>
-      <c r="R11" s="187" t="str">
+      <c r="R11" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
         <v/>
       </c>
-      <c r="S11" s="187" t="str">
+      <c r="S11" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
         <v/>
       </c>
-      <c r="T11" s="187">
+      <c r="T11" s="186">
         <f>IF(SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -13243,27 +13404,27 @@
       <c r="G13" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="187" t="str">
+      <c r="O13" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
         <v/>
       </c>
-      <c r="P13" s="187" t="str">
+      <c r="P13" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
         <v/>
       </c>
-      <c r="Q13" s="187" t="str">
+      <c r="Q13" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
         <v/>
       </c>
-      <c r="R13" s="187" t="str">
+      <c r="R13" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
         <v/>
       </c>
-      <c r="S13" s="187" t="str">
+      <c r="S13" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
         <v/>
       </c>
-      <c r="T13" s="187" t="str">
+      <c r="T13" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
         <v/>
       </c>
@@ -13298,29 +13459,29 @@
       <c r="F16" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="187" t="str">
+      <c r="O16" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16))</f>
         <v/>
       </c>
-      <c r="P16" s="187" t="str">
+      <c r="P16" s="186">
         <f>IF(SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16)=0,"",SUMIFS(Scenarios!E$16:E$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16))</f>
-        <v/>
-      </c>
-      <c r="Q16" s="187" t="str">
+        <v>2.7578253706754534</v>
+      </c>
+      <c r="Q16" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16)=0,"",SUMIFS(Scenarios!F$16:F$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16))</f>
         <v/>
       </c>
-      <c r="R16" s="187" t="str">
+      <c r="R16" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16)=0,"",SUMIFS(Scenarios!G$16:G$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16))</f>
         <v/>
       </c>
-      <c r="S16" s="187" t="str">
+      <c r="S16" s="186" t="str">
         <f>IF(SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16)=0,"",SUMIFS(Scenarios!H$16:H$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16))</f>
         <v/>
       </c>
-      <c r="T16" s="187" t="str">
+      <c r="T16" s="186">
         <f>IF(SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16)=0,"",SUMIFS(Scenarios!I$16:I$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D16))</f>
-        <v/>
+        <v>124.155</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
@@ -13364,10 +13525,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:L25"/>
+  <dimension ref="B3:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13386,87 +13547,87 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="181" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="181" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="184">
+      <c r="D15" s="183">
         <v>2025</v>
       </c>
-      <c r="E15" s="184">
+      <c r="E15" s="183">
         <v>2030</v>
       </c>
-      <c r="F15" s="184">
+      <c r="F15" s="183">
         <v>2035</v>
       </c>
-      <c r="G15" s="184">
+      <c r="G15" s="183">
         <v>2040</v>
       </c>
-      <c r="H15" s="184">
+      <c r="H15" s="183">
         <v>2045</v>
       </c>
-      <c r="I15" s="184">
+      <c r="I15" s="183">
         <v>2050</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="183" t="s">
+      <c r="C16" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="186">
+      <c r="D16" s="185">
         <f>'Exports summary'!L7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="E16" s="181">
+      <c r="E16" s="180">
         <f>D16</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="F16" s="181">
+      <c r="F16" s="180">
         <f t="shared" ref="F16:I16" si="0">E16</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="G16" s="181">
+      <c r="G16" s="180">
         <f t="shared" si="0"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="H16" s="181">
+      <c r="H16" s="180">
         <f t="shared" si="0"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="I16" s="181">
+      <c r="I16" s="180">
         <f t="shared" si="0"/>
         <v>125.30659928953824</v>
       </c>
@@ -13474,34 +13635,34 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="182" t="s">
+    <row r="17" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="182" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="186">
+      <c r="D17" s="185">
         <f>'Exports summary'!L8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="E17" s="181">
+      <c r="E17" s="180">
         <f>D17</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="F17" s="181">
+      <c r="F17" s="180">
         <f t="shared" ref="F17:I17" si="1">E17</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="G17" s="181">
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="H17" s="181">
+      <c r="H17" s="180">
         <f t="shared" si="1"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="I17" s="181">
+      <c r="I17" s="180">
         <f t="shared" si="1"/>
         <v>103.69340071046176</v>
       </c>
@@ -13509,76 +13670,76 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="182" t="s">
+    <row r="18" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="182" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+    </row>
+    <row r="19" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="183" t="s">
+      <c r="C19" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-    </row>
-    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="182" t="s">
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+    </row>
+    <row r="20" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="182" t="s">
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+    </row>
+    <row r="21" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="183" t="s">
+      <c r="C21" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="186">
+      <c r="D21" s="185">
         <f>D16</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="E21" s="186">
+      <c r="E21" s="185">
         <f t="shared" ref="E21:I21" si="2">E16</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="F21" s="186">
+      <c r="F21" s="185">
         <f t="shared" si="2"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="G21" s="186">
+      <c r="G21" s="185">
         <f t="shared" si="2"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="H21" s="186">
+      <c r="H21" s="185">
         <f t="shared" si="2"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="I21" s="186">
+      <c r="I21" s="185">
         <f t="shared" si="2"/>
         <v>125.30659928953824</v>
       </c>
@@ -13586,34 +13747,34 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="182" t="s">
+    <row r="22" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="183" t="s">
+      <c r="C22" s="182" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="186">
+      <c r="D22" s="185">
         <f>D17</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="E22" s="186">
+      <c r="E22" s="185">
         <f t="shared" ref="E22:I22" si="3">E17</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="F22" s="186">
+      <c r="F22" s="185">
         <f t="shared" si="3"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="G22" s="186">
+      <c r="G22" s="185">
         <f t="shared" si="3"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="H22" s="186">
+      <c r="H22" s="185">
         <f t="shared" si="3"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="I22" s="186">
+      <c r="I22" s="185">
         <f t="shared" si="3"/>
         <v>103.69340071046176</v>
       </c>
@@ -13621,57 +13782,225 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="182" t="s">
+    <row r="23" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="183" t="s">
+      <c r="C23" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181">
+      <c r="D23" s="180"/>
+      <c r="E23" s="180">
         <v>1</v>
       </c>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181">
-        <v>7</v>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
       </c>
       <c r="L23" s="91" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-    </row>
-    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="182" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+    </row>
+    <row r="25" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="183" t="s">
+      <c r="C25" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="191">
+        <f>W37</f>
+        <v>2.7578253706754534</v>
+      </c>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180">
+        <f>X42</f>
+        <v>124.155</v>
+      </c>
+      <c r="J25" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y27">
+        <f>5%*2000</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Q29" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="W29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Q30" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="V30" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="W30">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Q31" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="V31" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q33" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="V33" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="W33" s="133">
+        <f>[3]EB_Exist!$F$5</f>
+        <v>6.1380000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="V34" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="W34">
+        <f>[3]EB_Exist!$F$4</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q35" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="V35" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="W35">
+        <f>W36/W34*W33</f>
+        <v>11.160000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="V36" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="W36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q37" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="V37" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="W37" s="190">
+        <f>W31/W30*W35</f>
+        <v>2.7578253706754534</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q38" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="V38" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="W38" s="190">
+        <f>W35-W37</f>
+        <v>8.4021746293245485</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q39" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="V39" s="91" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q41" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="V41" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="W41">
+        <f>10%*(20+56+13)</f>
+        <v>8.9</v>
+      </c>
+      <c r="X41">
+        <f>7.5%*(20+56+13)</f>
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="Y41">
+        <f>300/W31*W37</f>
+        <v>275.78253706754532</v>
+      </c>
+    </row>
+    <row r="42" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="V42" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="W42">
+        <f>W33/W34*W41</f>
+        <v>165.54000000000002</v>
+      </c>
+      <c r="X42">
+        <f>W33/W34*X41</f>
+        <v>124.155</v>
+      </c>
+    </row>
+    <row r="44" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q44" s="91"/>
+      <c r="V44" s="91"/>
+    </row>
+    <row r="45" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <f>500/15</f>
+        <v>33.333333333333336</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14589,8 +14918,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -14609,182 +15113,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14933,8 +15262,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -14953,82 +15357,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15102,8 +15431,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -15122,232 +15676,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15411,8 +15740,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -15431,182 +15935,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15681,8 +16010,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -15701,232 +16255,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16013,8 +16342,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16033,232 +16587,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16335,8 +16664,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -16355,182 +16859,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16616,8 +16945,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -16636,232 +17190,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19862,8 +20191,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19882,32 +20236,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19968,18 +20297,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -19988,7 +20317,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20018,18 +20347,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20038,7 +20367,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20199,18 +20528,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20219,7 +20548,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20249,18 +20578,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -20269,7 +20598,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20342,18 +20671,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20362,7 +20691,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20392,18 +20721,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20412,7 +20741,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2B3D1D-BB58-40B4-A08E-DC53702DEBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72EDD0-4B40-4953-A909-01D7FDA2F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="17" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15570" tabRatio="796" activeTab="17" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="1" shapeId="0" xr:uid="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
+    <comment ref="K9" authorId="1" shapeId="0" xr:uid="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="315">
   <si>
     <t>Comment</t>
   </si>
@@ -971,9 +971,6 @@
   </si>
   <si>
     <t>ACT_BND-FX</t>
-  </si>
-  <si>
-    <t>ACT_BND-LO</t>
   </si>
   <si>
     <t>IDUM</t>
@@ -1391,6 +1388,9 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Assuming that half of current use is for catalytic converters which are expected to disapear by 2050</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +2773,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2905,7 +2905,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3037,7 +3037,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11080,7 +11080,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q9" dT="2021-09-22T07:45:53.23" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
+  <threadedComment ref="K9" dT="2021-09-22T07:45:53.23" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
     <text>Interpolation and forward extrapolation</text>
   </threadedComment>
 </ThreadedComments>
@@ -11153,52 +11153,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11228,52 +11228,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11349,18 +11349,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11369,7 +11369,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11399,18 +11399,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11419,7 +11419,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11476,19 +11476,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11496,32 +11521,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11551,19 +11551,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11571,32 +11596,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11780,52 +11780,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11855,52 +11855,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12009,10 +12009,10 @@
     <row r="11" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
       <c r="B11" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="174" t="s">
         <v>118</v>
@@ -12024,10 +12024,10 @@
     <row r="12" spans="1:6" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="58"/>
       <c r="B12" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="174" t="s">
         <v>118</v>
@@ -12304,18 +12304,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12324,7 +12324,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12354,18 +12354,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12374,7 +12374,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12455,43 +12455,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12500,32 +12475,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12555,18 +12555,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12575,57 +12600,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12637,10 +12637,10 @@
   <sheetPr codeName="Sheet31">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12654,11 +12654,11 @@
     <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
     <col min="8" max="15" width="9.140625" style="12"/>
     <col min="16" max="17" width="11.42578125" style="12" customWidth="1"/>
-    <col min="18" max="21" width="10.85546875" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="12"/>
+    <col min="18" max="20" width="10.85546875" style="12" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>ProcData</v>
@@ -12669,14 +12669,14 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
         <v>ProcData_exportLevels</v>
       </c>
       <c r="H2" s="50"/>
     </row>
-    <row r="3" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="H3" s="105" t="s">
         <v>139</v>
@@ -12685,7 +12685,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -12718,43 +12718,40 @@
         <v>186</v>
       </c>
       <c r="Q4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z4" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA4" s="165" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB4" s="165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="H5" s="61" t="s">
         <v>27</v>
@@ -12815,18 +12812,15 @@
       <c r="AA5" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="AB5" s="165" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="H6" s="61" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="56"/>
     </row>
-    <row r="7" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>56</v>
@@ -12854,61 +12848,58 @@
         <v>44</v>
       </c>
       <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>2012</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>2013</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>2014</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>2015</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>2016</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>2017</v>
       </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
       <c r="R7" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S7" s="12">
-        <v>2018</v>
-      </c>
-      <c r="T7" s="12">
         <v>2019</v>
       </c>
+      <c r="T7" s="214">
+        <v>2020</v>
+      </c>
       <c r="U7" s="214">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="V7" s="214">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="W7" s="214">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="X7" s="214">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="Y7" s="214">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="Z7" s="214">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="AA7" s="214">
-        <v>2045</v>
-      </c>
-      <c r="AB7" s="214">
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="str">
         <f>Processes_BASE!A8</f>
         <v>* Conversion technologies</v>
@@ -12918,6 +12909,7 @@
       <c r="F8" s="110"/>
       <c r="G8" s="198"/>
       <c r="H8" s="106"/>
+      <c r="T8" s="214"/>
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
       <c r="W8" s="214"/>
@@ -12925,9 +12917,8 @@
       <c r="Y8" s="214"/>
       <c r="Z8" s="214"/>
       <c r="AA8" s="214"/>
-      <c r="AB8" s="214"/>
-    </row>
-    <row r="9" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="str">
         <f>Processes_BASE!B9</f>
         <v>PEXPGM</v>
@@ -12959,66 +12950,62 @@
         <v>1</v>
       </c>
       <c r="K9" s="164">
+        <v>5</v>
+      </c>
+      <c r="L9" s="164">
         <f>'Exports summary'!G7</f>
         <v>124.69952392131813</v>
       </c>
-      <c r="L9" s="164">
+      <c r="M9" s="164">
         <f>'Exports summary'!H7</f>
         <v>130.71131620168498</v>
       </c>
-      <c r="M9" s="164">
+      <c r="N9" s="164">
         <f>'Exports summary'!I7</f>
         <v>84.02169487089688</v>
       </c>
-      <c r="N9" s="164">
+      <c r="O9" s="164">
         <f>'Exports summary'!J7</f>
         <v>133.92546693812523</v>
       </c>
-      <c r="O9" s="164">
+      <c r="P9" s="164">
         <f>'Exports summary'!K7</f>
         <v>127.71131620168498</v>
       </c>
-      <c r="P9" s="164">
+      <c r="Q9" s="164">
         <f>'Exports summary'!L7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="Q9" s="164">
-        <v>5</v>
-      </c>
       <c r="R9" s="164">
-        <f>P9</f>
-        <v>125.30659928953824</v>
+        <v>132.92896377787815</v>
       </c>
       <c r="S9" s="164">
-        <v>132.92896377787815</v>
-      </c>
-      <c r="T9" s="164">
         <v>143.56859209868344</v>
       </c>
-      <c r="U9" s="215">
+      <c r="T9" s="215">
         <v>107.43885384834891</v>
       </c>
+      <c r="U9" s="216">
+        <f>MEDIAN(R9:S9)</f>
+        <v>138.2487779382808</v>
+      </c>
       <c r="V9" s="216">
-        <f>MEDIAN(R9:T9)</f>
-        <v>132.92896377787815</v>
-      </c>
-      <c r="W9" s="216">
         <f>Scenarios!AQ25</f>
         <v>140.62042040052222</v>
       </c>
+      <c r="W9" s="217"/>
       <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="216">
+      <c r="Y9" s="216">
         <f>Scenarios!AR25</f>
-        <v>170.13629509932673</v>
-      </c>
-      <c r="AA9" s="216"/>
-      <c r="AB9" s="216">
+        <v>135.93802235772677</v>
+      </c>
+      <c r="Z9" s="216"/>
+      <c r="AA9" s="216">
         <f>Scenarios!AS25</f>
-        <v>573.04227644487446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>504.64573096167442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="str">
         <f>Processes_BASE!B10</f>
         <v>PEXPGMO</v>
@@ -13050,60 +13037,56 @@
         <v>1</v>
       </c>
       <c r="K10" s="164">
+        <v>5</v>
+      </c>
+      <c r="L10" s="164">
         <f>'Exports summary'!G8</f>
         <v>101.30047607868187</v>
       </c>
-      <c r="L10" s="164">
+      <c r="M10" s="164">
         <f>'Exports summary'!H8</f>
         <v>105.28868379831502</v>
       </c>
-      <c r="M10" s="164">
+      <c r="N10" s="164">
         <f>'Exports summary'!I8</f>
         <v>74.97830512910312</v>
       </c>
-      <c r="N10" s="164">
+      <c r="O10" s="164">
         <f>'Exports summary'!J8</f>
         <v>110.07453306187479</v>
       </c>
-      <c r="O10" s="164">
+      <c r="P10" s="164">
         <f>'Exports summary'!K8</f>
         <v>105.28868379831502</v>
       </c>
-      <c r="P10" s="164">
+      <c r="Q10" s="164">
         <f>'Exports summary'!L8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="Q10" s="164">
-        <v>5</v>
-      </c>
-      <c r="R10" s="164">
-        <f>P10</f>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="215">
+        <f>Q10</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="215">
-        <f>R10</f>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="V10" s="216">
+      <c r="U10" s="216">
         <f>'Exports summary'!O8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="W10" s="216">
+      <c r="V10" s="216">
         <f>'Exports summary'!P8</f>
         <v>103.69340071046176</v>
       </c>
+      <c r="W10" s="216"/>
       <c r="X10" s="216"/>
       <c r="Y10" s="216"/>
       <c r="Z10" s="216"/>
-      <c r="AA10" s="216"/>
-      <c r="AB10" s="216">
+      <c r="AA10" s="216">
         <f>'Exports summary'!T8</f>
         <v>103.69340071046176</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="str">
         <f>Processes_BASE!B11</f>
         <v>PEXNH3</v>
@@ -13134,21 +13117,24 @@
       <c r="J11" s="12">
         <v>1</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="K11" s="12">
         <v>5</v>
       </c>
-      <c r="U11" s="214">
-        <v>0</v>
-      </c>
+      <c r="L11" s="12">
+        <v>2.7578</v>
+      </c>
+      <c r="T11" s="214"/>
+      <c r="U11" s="218"/>
       <c r="V11" s="218">
-        <v>0</v>
-      </c>
-      <c r="W11" s="218">
         <f>'Exports summary'!P16</f>
         <v>2.7578253706754534</v>
       </c>
+      <c r="W11" s="217" t="str">
+        <f>'Exports summary'!Q16</f>
+        <v/>
+      </c>
       <c r="X11" s="217" t="str">
-        <f>'Exports summary'!Q16</f>
+        <f>'Exports summary'!R16</f>
         <v/>
       </c>
       <c r="Y11" s="217" t="str">
@@ -13156,19 +13142,15 @@
         <v/>
       </c>
       <c r="Z11" s="217" t="str">
-        <f>'Exports summary'!R16</f>
-        <v/>
-      </c>
-      <c r="AA11" s="217" t="str">
         <f>'Exports summary'!S16</f>
         <v/>
       </c>
-      <c r="AB11" s="217">
+      <c r="AA11" s="217">
         <f>'Exports summary'!T16</f>
         <v>124.155</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="str">
         <f>Processes_BASE!B12</f>
         <v>PEXGDRI</v>
@@ -13199,20 +13181,24 @@
       <c r="J12" s="12">
         <v>1</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="K12" s="12">
         <v>5</v>
       </c>
-      <c r="U12" s="214"/>
-      <c r="V12" s="217" t="str">
+      <c r="T12" s="214"/>
+      <c r="U12" s="217" t="str">
         <f>'Exports summary'!O11</f>
         <v/>
       </c>
-      <c r="W12" s="217">
+      <c r="V12" s="217">
         <f>'Exports summary'!P11</f>
         <v>1</v>
       </c>
+      <c r="W12" s="217" t="str">
+        <f>'Exports summary'!Q11</f>
+        <v/>
+      </c>
       <c r="X12" s="217" t="str">
-        <f>'Exports summary'!Q11</f>
+        <f>'Exports summary'!R11</f>
         <v/>
       </c>
       <c r="Y12" s="217" t="str">
@@ -13220,19 +13206,15 @@
         <v/>
       </c>
       <c r="Z12" s="217" t="str">
-        <f>'Exports summary'!R11</f>
-        <v/>
-      </c>
-      <c r="AA12" s="217" t="str">
         <f>'Exports summary'!S11</f>
         <v/>
       </c>
-      <c r="AB12" s="217">
+      <c r="AA12" s="217">
         <f>'Exports summary'!T11</f>
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="str">
         <f>Processes_BASE!B13</f>
         <v>PEXOKG</v>
@@ -13263,30 +13245,30 @@
       <c r="J13" s="12">
         <v>1</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="K13" s="12">
         <v>5</v>
       </c>
-      <c r="U13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="216"/>
       <c r="V13" s="216"/>
       <c r="W13" s="216"/>
-      <c r="X13" s="216"/>
+      <c r="X13" s="216">
+        <v>0</v>
+      </c>
       <c r="Y13" s="216">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="216">
         <f>Scenarios!AF16</f>
         <v>5.0430461919999994</v>
       </c>
+      <c r="Z13" s="216">
+        <f>Y13</f>
+        <v>5.0430461919999994</v>
+      </c>
       <c r="AA13" s="216">
-        <f>Z13</f>
-        <v>5.0430461919999994</v>
-      </c>
-      <c r="AB13" s="216">
         <f>Scenarios!AG16</f>
         <v>10.086092383999999</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="str">
         <f>Processes_BASE!B14</f>
         <v>PEXHETP</v>
@@ -13317,28 +13299,28 @@
       <c r="J14" s="12">
         <v>1</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="K14" s="12">
         <v>5</v>
       </c>
-      <c r="U14" s="214"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217">
+      <c r="T14" s="214"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="217">
         <f>Scenarios!R6</f>
         <v>0.2</v>
       </c>
+      <c r="W14" s="214"/>
       <c r="X14" s="214"/>
-      <c r="Y14" s="214"/>
-      <c r="Z14" s="219">
+      <c r="Y14" s="219">
         <f>Scenarios!S6</f>
         <v>2.3572743999999997</v>
       </c>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219">
+      <c r="Z14" s="219"/>
+      <c r="AA14" s="219">
         <f>Scenarios!T6</f>
         <v>21.333332000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="str">
         <f>Processes_BASE!B15</f>
         <v>PEXHFCP</v>
@@ -13369,23 +13351,23 @@
       <c r="J15" s="12">
         <v>1</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="K15" s="12">
         <v>5</v>
       </c>
-      <c r="U15" s="214"/>
-      <c r="V15" s="217">
+      <c r="T15" s="214"/>
+      <c r="U15" s="217">
         <v>0</v>
       </c>
-      <c r="W15" s="218">
+      <c r="V15" s="218">
         <f>Scenarios!U6</f>
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="Z15" s="218">
+      <c r="Y15" s="218">
         <f>Scenarios!V6</f>
         <v>7.7933579200000009</v>
       </c>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="218">
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="218">
         <f>Scenarios!W6</f>
         <v>309.96310400000004</v>
       </c>
@@ -13399,18 +13381,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13419,57 +13426,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13499,43 +13481,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13544,32 +13501,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13620,19 +13602,19 @@
     <row r="3" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="H3" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K3" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L3" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M3" s="173"/>
       <c r="N3" s="173"/>
@@ -13645,19 +13627,19 @@
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13845,43 +13827,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13890,32 +13847,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13945,18 +13927,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13965,57 +13972,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14094,7 +14076,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="169" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="151"/>
       <c r="F2" s="151"/>
@@ -14107,7 +14089,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="179" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="132" t="str">
         <f>INDEX(Scenarios!$C$4:$C$8,MATCH(B3,Scenarios!$B$4:$B$8,0))</f>
@@ -14124,7 +14106,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="151"/>
       <c r="D4" s="151"/>
@@ -14137,19 +14119,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O5" s="152"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="143"/>
       <c r="H6" s="143"/>
@@ -14286,7 +14268,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P10" s="154"/>
       <c r="Q10" s="154"/>
@@ -14296,13 +14278,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D11" s="169" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="169" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O11" s="181" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D11))</f>
@@ -14331,7 +14313,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P12" s="154"/>
       <c r="Q12" s="154"/>
@@ -14341,13 +14323,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D13" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="169" t="s">
-        <v>199</v>
-      </c>
       <c r="G13" s="169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O13" s="181" t="str">
         <f>IF(SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13)=0,"",SUMIFS(Scenarios!D$16:D$25,Scenarios!$B$16:$B$25,$B$3,Scenarios!$C$16:$C$25,$D13))</f>
@@ -14383,7 +14365,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P15" s="154"/>
       <c r="Q15" s="154"/>
@@ -14393,13 +14375,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="169" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="169" t="s">
-        <v>201</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="169" t="s">
         <v>116</v>
@@ -14470,10 +14452,10 @@
   <sheetPr codeName="Sheet21">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:AU53"/>
+  <dimension ref="B2:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14486,7 +14468,7 @@
   <sheetData>
     <row r="2" spans="2:42" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q2" s="206" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R2" s="63"/>
       <c r="S2" s="63"/>
@@ -14495,35 +14477,35 @@
       <c r="V2" s="63"/>
       <c r="W2" s="63"/>
       <c r="AA2" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:42" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R3" s="199"/>
       <c r="S3" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T3" s="224"/>
       <c r="U3" s="199"/>
       <c r="V3" s="223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W3" s="224"/>
       <c r="AC3" s="211"/>
       <c r="AL3" s="211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM3" s="212">
         <v>2030</v>
@@ -14537,10 +14519,10 @@
     </row>
     <row r="4" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="176" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="176" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>212</v>
       </c>
       <c r="Q4" s="238"/>
       <c r="R4" s="200">
@@ -14562,7 +14544,7 @@
         <v>2050</v>
       </c>
       <c r="AL4" s="213" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM4" s="205">
         <v>3.6574278692173281</v>
@@ -14576,13 +14558,13 @@
     </row>
     <row r="5" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="176" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="176" t="s">
-        <v>214</v>
-      </c>
       <c r="Q5" s="201" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R5" s="202">
         <v>0.2</v>
@@ -14603,7 +14585,7 @@
         <v>4.4000000000000011E-2</v>
       </c>
       <c r="AL5" s="213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM5" s="205">
         <v>3.8273294341222126</v>
@@ -14619,7 +14601,7 @@
       <c r="B6" s="175"/>
       <c r="C6" s="175"/>
       <c r="Q6" s="204" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R6" s="202">
         <v>0.2</v>
@@ -14640,7 +14622,7 @@
         <v>309.96310400000004</v>
       </c>
       <c r="AL6" s="213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM6" s="205">
         <v>59.56614453213281</v>
@@ -14656,7 +14638,7 @@
       <c r="B7" s="175"/>
       <c r="C7" s="175"/>
       <c r="Q7" s="201" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R7" s="205">
         <v>1.1786371999999998</v>
@@ -14677,7 +14659,7 @@
         <v>818.30256000000008</v>
       </c>
       <c r="AL7" s="228" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM7" s="229"/>
       <c r="AN7" s="229"/>
@@ -14687,7 +14669,7 @@
       <c r="B8" s="175"/>
       <c r="C8" s="175"/>
       <c r="Q8" s="225" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R8" s="226"/>
       <c r="S8" s="226"/>
@@ -14696,7 +14678,7 @@
       <c r="V8" s="226"/>
       <c r="W8" s="227"/>
       <c r="AL8" s="231" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM8" s="232"/>
       <c r="AN8" s="232"/>
@@ -14704,7 +14686,7 @@
     </row>
     <row r="9" spans="2:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AL9" s="234" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM9" s="235"/>
       <c r="AN9" s="235"/>
@@ -14712,7 +14694,7 @@
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AA14" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB14" s="210"/>
       <c r="AC14" s="210"/>
@@ -14731,7 +14713,7 @@
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B15" s="178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="178" t="s">
         <v>126</v>
@@ -14759,7 +14741,7 @@
         <v>0.23304279999999999</v>
       </c>
       <c r="AB15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF15" s="208">
         <f>0.5*AA15</f>
@@ -14770,15 +14752,15 @@
         <v>0.23304279999999999</v>
       </c>
       <c r="AL15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN15" t="s">
         <v>301</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="16" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>164</v>
@@ -14808,7 +14790,7 @@
         <v>125.30659928953824</v>
       </c>
       <c r="L16" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA16" s="148">
         <f>AG32/1000</f>
@@ -14818,13 +14800,13 @@
         <v>116</v>
       </c>
       <c r="AC16" s="221" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF16" s="182">
         <f>0.5*AA16</f>
         <v>5.0430461919999994</v>
       </c>
-      <c r="AG16" s="148">
+      <c r="AG16" s="130">
         <f>AA16</f>
         <v>10.086092383999999</v>
       </c>
@@ -14838,9 +14820,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>161</v>
@@ -14870,10 +14852,10 @@
         <v>103.69340071046176</v>
       </c>
       <c r="L17" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC17" s="89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG17" s="182"/>
       <c r="AN17">
@@ -14886,12 +14868,12 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="18" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="175"/>
       <c r="E18" s="175"/>
@@ -14900,12 +14882,12 @@
       <c r="H18" s="175"/>
       <c r="I18" s="175"/>
     </row>
-    <row r="19" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="175"/>
       <c r="E19" s="175"/>
@@ -14914,10 +14896,10 @@
       <c r="H19" s="175"/>
       <c r="I19" s="175"/>
       <c r="AA19" s="148" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC19" s="89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -14931,15 +14913,15 @@
         <v>2.2110322580645162E-2</v>
       </c>
       <c r="AN19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="175"/>
       <c r="E20" s="175"/>
@@ -14949,7 +14931,7 @@
       <c r="I20" s="175"/>
       <c r="AA20" s="148"/>
       <c r="AC20" s="89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN20">
         <v>2018</v>
@@ -14961,9 +14943,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>164</v>
@@ -14993,7 +14975,7 @@
         <v>125.30659928953824</v>
       </c>
       <c r="L21" s="89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN21">
         <v>138.9392308656</v>
@@ -15005,9 +14987,9 @@
         <v>99.500022283199996</v>
       </c>
     </row>
-    <row r="22" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>161</v>
@@ -15037,21 +15019,21 @@
         <v>103.69340071046176</v>
       </c>
       <c r="L22" s="89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AJ22" s="89" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="175"/>
       <c r="E23" s="175">
@@ -15064,31 +15046,31 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L23" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC23" t="s">
         <v>275</v>
       </c>
-      <c r="AC23" t="s">
-        <v>276</v>
-      </c>
       <c r="AD23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE23" t="s">
         <v>275</v>
       </c>
-      <c r="AE23" t="s">
-        <v>276</v>
-      </c>
       <c r="AF23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG23" t="s">
         <v>275</v>
       </c>
-      <c r="AG23" t="s">
-        <v>276</v>
-      </c>
       <c r="AM23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN23">
         <v>2018</v>
@@ -15112,15 +15094,15 @@
         <v>2050</v>
       </c>
       <c r="AU23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="175"/>
       <c r="E24" s="175"/>
@@ -15129,13 +15111,13 @@
       <c r="H24" s="175"/>
       <c r="I24" s="175"/>
       <c r="AB24" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD24" t="s">
         <v>277</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
         <v>278</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>279</v>
       </c>
       <c r="AL24" t="str">
         <f>AL4</f>
@@ -15174,12 +15156,12 @@
         <v>1.0083378396918803</v>
       </c>
     </row>
-    <row r="25" spans="2:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="175"/>
       <c r="E25" s="183">
@@ -15197,10 +15179,10 @@
         <v>116</v>
       </c>
       <c r="L25" s="89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -15245,25 +15227,28 @@
         <v>140.62042040052222</v>
       </c>
       <c r="AR25" s="148">
-        <f t="shared" si="4"/>
-        <v>170.13629509932673</v>
+        <f>MEDIAN($AN25:$AP25)*0.75+AN5</f>
+        <v>135.93802235772677</v>
       </c>
       <c r="AS25" s="148">
-        <f t="shared" si="4"/>
-        <v>573.04227644487446</v>
+        <f>MEDIAN($AN25:$AP25)*0.5+AO5</f>
+        <v>504.64573096167442</v>
       </c>
       <c r="AU25">
         <f>AS25/AM25</f>
-        <v>4.1891170993835409</v>
-      </c>
-    </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.2">
+        <v>3.6891170993835409</v>
+      </c>
+      <c r="AW25" s="89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="I26">
         <f>I25*W34/W33</f>
         <v>6.6749999999999998</v>
       </c>
       <c r="AA26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -15320,13 +15305,13 @@
         <v>11.037322630157572</v>
       </c>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="Y27">
         <f>5%*2000</f>
         <v>100</v>
       </c>
       <c r="AA27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -15347,9 +15332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.2">
       <c r="AA28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB28">
         <v>394700</v>
@@ -15370,18 +15355,18 @@
         <v>56558.323077979323</v>
       </c>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B29" s="89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W29">
         <v>2017</v>
       </c>
       <c r="AA29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB29">
         <v>123400</v>
@@ -15402,18 +15387,18 @@
         <v>17315.996640000001</v>
       </c>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="Q30" s="89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V30" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W30">
         <v>12.14</v>
       </c>
       <c r="AA30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -15433,19 +15418,23 @@
       <c r="AG30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AS30">
+        <f>573+96</f>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="2:49" x14ac:dyDescent="0.2">
       <c r="Q31" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V31" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W31">
         <v>3</v>
       </c>
       <c r="AA31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB31">
         <v>14500</v>
@@ -15466,9 +15455,9 @@
         <v>6336.0418377599999</v>
       </c>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.2">
       <c r="AA32" s="209" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB32" s="209">
         <v>200600</v>
@@ -15491,7 +15480,7 @@
     </row>
     <row r="33" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q33" s="89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V33" s="89" t="s">
         <v>116</v>
@@ -15501,7 +15490,7 @@
         <v>6.1380000000000008</v>
       </c>
       <c r="AA33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB33">
         <v>77900</v>
@@ -15524,14 +15513,14 @@
     </row>
     <row r="34" spans="17:33" x14ac:dyDescent="0.2">
       <c r="V34" s="89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W34">
         <f>[2]EB_Exist!$F$4</f>
         <v>0.33</v>
       </c>
       <c r="AA34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -15554,7 +15543,7 @@
     </row>
     <row r="35" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q35" s="89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V35" s="89" t="s">
         <v>116</v>
@@ -15564,7 +15553,7 @@
         <v>11.160000000000002</v>
       </c>
       <c r="AA35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -15587,13 +15576,13 @@
     </row>
     <row r="36" spans="17:33" x14ac:dyDescent="0.2">
       <c r="V36" s="89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W36">
         <v>0.6</v>
       </c>
       <c r="AA36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -15616,7 +15605,7 @@
     </row>
     <row r="37" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q37" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V37" s="89" t="s">
         <v>116</v>
@@ -15626,7 +15615,7 @@
         <v>2.7578253706754534</v>
       </c>
       <c r="AA37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB37">
         <v>27100</v>
@@ -15649,7 +15638,7 @@
     </row>
     <row r="38" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q38" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V38" s="89" t="s">
         <v>116</v>
@@ -15659,7 +15648,7 @@
         <v>8.4021746293245485</v>
       </c>
       <c r="AA38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB38">
         <v>795000</v>
@@ -15682,13 +15671,13 @@
     </row>
     <row r="39" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q39" s="89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V39" s="89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -15705,7 +15694,7 @@
     </row>
     <row r="40" spans="17:33" x14ac:dyDescent="0.2">
       <c r="AA40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -15716,10 +15705,10 @@
     </row>
     <row r="41" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q41" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V41" s="89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W41">
         <f>10%*(20+56+13)</f>
@@ -15747,7 +15736,7 @@
         <v>124.155</v>
       </c>
       <c r="AA42" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE42" s="220">
         <f t="shared" ref="AE42" si="7">AE32/SUM(AE25:AE39)</f>
@@ -15771,15 +15760,15 @@
     </row>
     <row r="46" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V47">
         <f>500+13+170</f>
@@ -15788,29 +15777,29 @@
     </row>
     <row r="48" spans="17:33" x14ac:dyDescent="0.2">
       <c r="Q48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R48">
         <v>22.5</v>
       </c>
       <c r="S48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R49">
         <v>3340</v>
       </c>
       <c r="S49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R50">
         <f>R49*3.6</f>
@@ -15826,14 +15815,14 @@
     </row>
     <row r="51" spans="17:22" x14ac:dyDescent="0.2">
       <c r="Q51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R51">
         <f>R50/R48</f>
         <v>534.4</v>
       </c>
       <c r="S51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V51">
         <f>5%*V47</f>
@@ -15842,7 +15831,7 @@
     </row>
     <row r="53" spans="17:22" ht="15" x14ac:dyDescent="0.25">
       <c r="Q53" s="222" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -15890,7 +15879,7 @@
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="167" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
@@ -16424,7 +16413,7 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C4" s="89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -16778,8 +16767,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16798,182 +16962,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17122,8 +17111,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -17142,82 +17206,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17291,8 +17280,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -17311,232 +17525,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17600,8 +17589,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -17620,182 +17784,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17870,8 +17859,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -17890,232 +18104,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18202,8 +18191,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18222,232 +18436,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18524,8 +18513,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -18544,182 +18708,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18805,8 +18794,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -18825,232 +19039,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19262,13 +19251,13 @@
         <v>154</v>
       </c>
       <c r="H2" s="191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" s="191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J2" s="191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="87"/>
@@ -19281,13 +19270,13 @@
         <v>155</v>
       </c>
       <c r="S2" s="196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T2" s="196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U2" s="196" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V2" s="196"/>
       <c r="W2" s="196"/>
@@ -19318,13 +19307,13 @@
         <v>159</v>
       </c>
       <c r="H3" s="191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" s="191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J3" s="197" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L3" s="86"/>
       <c r="M3" s="87"/>
@@ -19339,13 +19328,13 @@
         <v>157</v>
       </c>
       <c r="S3" s="194" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T3" s="194" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U3" s="194" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V3" s="194"/>
       <c r="W3" s="194"/>
@@ -19910,14 +19899,14 @@
       <c r="M23" s="78"/>
       <c r="N23" s="186"/>
       <c r="O23" s="185" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P23" s="78"/>
       <c r="Q23" s="74"/>
       <c r="R23" s="78"/>
       <c r="S23" s="160"/>
       <c r="Y23" s="185" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
@@ -19941,7 +19930,7 @@
       <c r="M24" s="115"/>
       <c r="N24" s="187"/>
       <c r="O24" s="184" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P24" s="69"/>
       <c r="Q24" s="66"/>
@@ -19979,7 +19968,7 @@
       <c r="W25" s="160"/>
       <c r="X25" s="163"/>
       <c r="Y25" s="195" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z25" s="66"/>
       <c r="AA25" s="66"/>
@@ -20003,7 +19992,7 @@
       <c r="M26" s="70"/>
       <c r="N26" s="67"/>
       <c r="O26" s="160" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P26" s="69"/>
       <c r="Q26" s="66"/>
@@ -20078,7 +20067,7 @@
       <c r="M29" s="70"/>
       <c r="N29" s="67"/>
       <c r="O29" s="185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P29" s="78"/>
       <c r="Q29" s="74"/>
@@ -20086,7 +20075,7 @@
       <c r="S29" s="160"/>
       <c r="T29" s="160"/>
       <c r="Y29" s="185" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z29" s="66"/>
       <c r="AA29" s="66"/>
@@ -20140,13 +20129,13 @@
       <c r="M31" s="70"/>
       <c r="N31" s="67"/>
       <c r="O31" s="195" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P31" s="69"/>
       <c r="Q31" s="66"/>
       <c r="R31" s="70"/>
       <c r="Y31" s="195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
@@ -20194,7 +20183,7 @@
       <c r="M33" s="70"/>
       <c r="N33" s="67"/>
       <c r="O33" s="185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P33" s="78"/>
       <c r="Q33" s="74"/>
@@ -20203,7 +20192,7 @@
       <c r="T33" s="160"/>
       <c r="U33" s="160"/>
       <c r="Y33" s="185" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z33" s="66"/>
       <c r="AA33" s="66"/>
@@ -20256,13 +20245,13 @@
       <c r="M35" s="70"/>
       <c r="N35" s="67"/>
       <c r="O35" s="195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P35" s="69"/>
       <c r="Q35" s="66"/>
       <c r="R35" s="70"/>
       <c r="Y35" s="195" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z35" s="66"/>
       <c r="AA35" s="66"/>
@@ -22366,8 +22355,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -22386,32 +22400,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22472,18 +22461,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22492,7 +22481,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22522,18 +22511,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22542,7 +22531,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22651,10 +22640,10 @@
     <row r="11" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>188</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>189</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>116</v>
@@ -22666,10 +22655,10 @@
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="54" t="s">
         <v>116</v>
@@ -22680,10 +22669,10 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>116</v>
@@ -22749,18 +22738,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22769,7 +22758,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22799,18 +22788,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22819,7 +22808,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22892,18 +22881,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22912,7 +22901,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22942,18 +22931,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22962,7 +22951,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72EDD0-4B40-4953-A909-01D7FDA2F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EAC687-D2BC-4ACC-ABFA-6AE3AE1797E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15570" tabRatio="796" activeTab="17" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="17" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -2773,7 +2773,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2905,7 +2905,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3037,7 +3037,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11153,52 +11153,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11228,52 +11228,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11349,18 +11349,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11369,7 +11369,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11399,18 +11399,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11419,7 +11419,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11476,44 +11476,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11521,7 +11496,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11551,44 +11551,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11596,7 +11571,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11780,52 +11780,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11855,52 +11855,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12304,18 +12304,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12324,7 +12324,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12354,18 +12354,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12374,7 +12374,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12455,18 +12455,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12475,57 +12500,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12555,43 +12555,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12600,32 +12575,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12639,8 +12639,8 @@
   </sheetPr>
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13381,43 +13381,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13426,32 +13401,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13481,18 +13481,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13501,57 +13526,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13827,18 +13827,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13847,57 +13872,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13927,43 +13927,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13972,32 +13947,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14454,8 +14454,8 @@
   </sheetPr>
   <dimension ref="B2:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16767,8 +16767,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -16787,182 +16962,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17111,8 +17111,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17131,82 +17206,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17280,8 +17280,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17300,232 +17525,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17589,8 +17589,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17609,182 +17784,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17859,8 +17859,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17879,232 +18104,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18191,8 +18191,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18211,232 +18436,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18513,8 +18513,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18533,182 +18708,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18794,8 +18794,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18814,232 +19039,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22355,8 +22355,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -22375,32 +22400,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22461,18 +22461,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22481,7 +22481,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22511,18 +22511,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22531,7 +22531,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22738,18 +22738,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22758,7 +22758,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22788,18 +22788,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22808,7 +22808,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22881,18 +22881,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22901,7 +22901,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22931,18 +22931,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22951,7 +22951,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EAC687-D2BC-4ACC-ABFA-6AE3AE1797E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FED8AF-BAAF-4557-AF17-0E7C7AA3AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="17" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="14" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -306,6 +306,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="AS23" authorId="0" shapeId="0" xr:uid="{F606AC00-1855-47D5-9773-DC15AD04AD40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fadiel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pt share of demand for autocatalysts removed.
+Note other PGMS such as Rh and Pd are not  factored. Needs a revisit.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I25" authorId="0" shapeId="0" xr:uid="{E3D0E067-D854-4F66-B98D-7EB7F263DAC7}">
       <text>
         <r>
@@ -409,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="315">
   <si>
     <t>Comment</t>
   </si>
@@ -1390,7 +1415,7 @@
     </r>
   </si>
   <si>
-    <t>Assuming that half of current use is for catalytic converters which are expected to disapear by 2050</t>
+    <t>Net platinum demand (tonnes) for the transtion</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1431,7 @@
     <numFmt numFmtId="168" formatCode="&quot;R&quot;#,##0.00000;[Red]\-&quot;R&quot;#,##0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1756,8 +1781,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1796,6 +1834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,7 +2259,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2572,15 +2616,19 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="53" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="54" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="22" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11611,7 +11659,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12637,10 +12685,10 @@
   <sheetPr codeName="Sheet31">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12850,52 +12898,52 @@
       <c r="K7" s="12">
         <v>0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="217">
         <v>2012</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="217">
         <v>2013</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="217">
         <v>2014</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="217">
         <v>2015</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="217">
         <v>2016</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="217">
         <v>2017</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="217">
         <v>2018</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="217">
         <v>2019</v>
       </c>
-      <c r="T7" s="214">
+      <c r="T7" s="218">
         <v>2020</v>
       </c>
-      <c r="U7" s="214">
+      <c r="U7" s="221">
         <v>2025</v>
       </c>
-      <c r="V7" s="214">
+      <c r="V7" s="221">
         <v>2030</v>
       </c>
-      <c r="W7" s="214">
+      <c r="W7" s="221">
         <v>2035</v>
       </c>
-      <c r="X7" s="214">
+      <c r="X7" s="221">
         <v>2039</v>
       </c>
-      <c r="Y7" s="214">
+      <c r="Y7" s="221">
         <v>2040</v>
       </c>
-      <c r="Z7" s="214">
+      <c r="Z7" s="221">
         <v>2045</v>
       </c>
-      <c r="AA7" s="214">
+      <c r="AA7" s="221">
         <v>2050</v>
       </c>
     </row>
@@ -12909,14 +12957,22 @@
       <c r="F8" s="110"/>
       <c r="G8" s="198"/>
       <c r="H8" s="106"/>
-      <c r="T8" s="214"/>
-      <c r="U8" s="214"/>
-      <c r="V8" s="214"/>
-      <c r="W8" s="214"/>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="214"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="221"/>
+      <c r="Y8" s="221"/>
+      <c r="Z8" s="221"/>
+      <c r="AA8" s="221"/>
     </row>
     <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="str">
@@ -12952,57 +13008,57 @@
       <c r="K9" s="164">
         <v>5</v>
       </c>
-      <c r="L9" s="164">
+      <c r="L9" s="219">
         <f>'Exports summary'!G7</f>
         <v>124.69952392131813</v>
       </c>
-      <c r="M9" s="164">
+      <c r="M9" s="219">
         <f>'Exports summary'!H7</f>
         <v>130.71131620168498</v>
       </c>
-      <c r="N9" s="164">
+      <c r="N9" s="219">
         <f>'Exports summary'!I7</f>
         <v>84.02169487089688</v>
       </c>
-      <c r="O9" s="164">
+      <c r="O9" s="219">
         <f>'Exports summary'!J7</f>
         <v>133.92546693812523</v>
       </c>
-      <c r="P9" s="164">
+      <c r="P9" s="219">
         <f>'Exports summary'!K7</f>
         <v>127.71131620168498</v>
       </c>
-      <c r="Q9" s="164">
+      <c r="Q9" s="219">
         <f>'Exports summary'!L7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="R9" s="164">
+      <c r="R9" s="219">
         <v>132.92896377787815</v>
       </c>
-      <c r="S9" s="164">
+      <c r="S9" s="219">
         <v>143.56859209868344</v>
       </c>
-      <c r="T9" s="215">
+      <c r="T9" s="220">
         <v>107.43885384834891</v>
       </c>
-      <c r="U9" s="216">
+      <c r="U9" s="222">
         <f>MEDIAN(R9:S9)</f>
         <v>138.2487779382808</v>
       </c>
-      <c r="V9" s="216">
+      <c r="V9" s="226">
         <f>Scenarios!AQ25</f>
         <v>140.62042040052222</v>
       </c>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="216">
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="222">
         <f>Scenarios!AR25</f>
-        <v>135.93802235772677</v>
-      </c>
-      <c r="Z9" s="216"/>
-      <c r="AA9" s="216">
+        <v>170.13629509932673</v>
+      </c>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222">
         <f>Scenarios!AS25</f>
-        <v>504.64573096167442</v>
+        <v>526.83014240445232</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13039,49 +13095,49 @@
       <c r="K10" s="164">
         <v>5</v>
       </c>
-      <c r="L10" s="164">
+      <c r="L10" s="219">
         <f>'Exports summary'!G8</f>
         <v>101.30047607868187</v>
       </c>
-      <c r="M10" s="164">
+      <c r="M10" s="219">
         <f>'Exports summary'!H8</f>
         <v>105.28868379831502</v>
       </c>
-      <c r="N10" s="164">
+      <c r="N10" s="219">
         <f>'Exports summary'!I8</f>
         <v>74.97830512910312</v>
       </c>
-      <c r="O10" s="164">
+      <c r="O10" s="219">
         <f>'Exports summary'!J8</f>
         <v>110.07453306187479</v>
       </c>
-      <c r="P10" s="164">
+      <c r="P10" s="219">
         <f>'Exports summary'!K8</f>
         <v>105.28868379831502</v>
       </c>
-      <c r="Q10" s="164">
+      <c r="Q10" s="219">
         <f>'Exports summary'!L8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="215">
+      <c r="R10" s="219"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="220">
         <f>Q10</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="U10" s="216">
+      <c r="U10" s="222">
         <f>'Exports summary'!O8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="V10" s="216">
+      <c r="V10" s="222">
         <f>'Exports summary'!P8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="W10" s="216"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="216"/>
-      <c r="Z10" s="216"/>
-      <c r="AA10" s="216">
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222">
         <f>'Exports summary'!T8</f>
         <v>103.69340071046176</v>
       </c>
@@ -13120,32 +13176,39 @@
       <c r="K11" s="12">
         <v>5</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="217">
         <v>2.7578</v>
       </c>
-      <c r="T11" s="214"/>
-      <c r="U11" s="218"/>
-      <c r="V11" s="218">
+      <c r="M11" s="217"/>
+      <c r="N11" s="217"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="217"/>
+      <c r="Q11" s="217"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="218"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224">
         <f>'Exports summary'!P16</f>
         <v>2.7578253706754534</v>
       </c>
-      <c r="W11" s="217" t="str">
+      <c r="W11" s="223" t="str">
         <f>'Exports summary'!Q16</f>
         <v/>
       </c>
-      <c r="X11" s="217" t="str">
+      <c r="X11" s="223" t="str">
         <f>'Exports summary'!R16</f>
         <v/>
       </c>
-      <c r="Y11" s="217" t="str">
+      <c r="Y11" s="223" t="str">
         <f>'Exports summary'!R16</f>
         <v/>
       </c>
-      <c r="Z11" s="217" t="str">
+      <c r="Z11" s="223" t="str">
         <f>'Exports summary'!S16</f>
         <v/>
       </c>
-      <c r="AA11" s="217">
+      <c r="AA11" s="223">
         <f>'Exports summary'!T16</f>
         <v>124.155</v>
       </c>
@@ -13184,32 +13247,40 @@
       <c r="K12" s="12">
         <v>5</v>
       </c>
-      <c r="T12" s="214"/>
-      <c r="U12" s="217" t="str">
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="217"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="223" t="str">
         <f>'Exports summary'!O11</f>
         <v/>
       </c>
-      <c r="V12" s="217">
+      <c r="V12" s="223">
         <f>'Exports summary'!P11</f>
         <v>1</v>
       </c>
-      <c r="W12" s="217" t="str">
+      <c r="W12" s="223" t="str">
         <f>'Exports summary'!Q11</f>
         <v/>
       </c>
-      <c r="X12" s="217" t="str">
+      <c r="X12" s="223" t="str">
         <f>'Exports summary'!R11</f>
         <v/>
       </c>
-      <c r="Y12" s="217" t="str">
+      <c r="Y12" s="223" t="str">
         <f>'Exports summary'!R11</f>
         <v/>
       </c>
-      <c r="Z12" s="217" t="str">
+      <c r="Z12" s="223" t="str">
         <f>'Exports summary'!S11</f>
         <v/>
       </c>
-      <c r="AA12" s="217">
+      <c r="AA12" s="223">
         <f>'Exports summary'!T11</f>
         <v>14</v>
       </c>
@@ -13248,22 +13319,30 @@
       <c r="K13" s="12">
         <v>5</v>
       </c>
-      <c r="T13" s="214"/>
-      <c r="U13" s="216"/>
-      <c r="V13" s="216"/>
-      <c r="W13" s="216"/>
-      <c r="X13" s="216">
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="217"/>
+      <c r="Q13" s="217"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="218"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222">
         <v>0</v>
       </c>
-      <c r="Y13" s="216">
+      <c r="Y13" s="222">
         <f>Scenarios!AF16</f>
         <v>5.0430461919999994</v>
       </c>
-      <c r="Z13" s="216">
+      <c r="Z13" s="222">
         <f>Y13</f>
         <v>5.0430461919999994</v>
       </c>
-      <c r="AA13" s="216">
+      <c r="AA13" s="222">
         <f>Scenarios!AG16</f>
         <v>10.086092383999999</v>
       </c>
@@ -13302,20 +13381,34 @@
       <c r="K14" s="12">
         <v>5</v>
       </c>
-      <c r="T14" s="214"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217">
+      <c r="L14" s="217">
+        <v>0</v>
+      </c>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217">
+        <v>0</v>
+      </c>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="218">
+        <v>0</v>
+      </c>
+      <c r="U14" s="223"/>
+      <c r="V14" s="223">
         <f>Scenarios!R6</f>
         <v>0.2</v>
       </c>
-      <c r="W14" s="214"/>
-      <c r="X14" s="214"/>
-      <c r="Y14" s="219">
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="225">
         <f>Scenarios!S6</f>
         <v>2.3572743999999997</v>
       </c>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219">
+      <c r="Z14" s="225"/>
+      <c r="AA14" s="225">
         <f>Scenarios!T6</f>
         <v>21.333332000000002</v>
       </c>
@@ -13354,23 +13447,57 @@
       <c r="K15" s="12">
         <v>5</v>
       </c>
-      <c r="T15" s="214"/>
-      <c r="U15" s="217">
+      <c r="L15" s="217">
         <v>0</v>
       </c>
-      <c r="V15" s="218">
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217">
+        <v>0</v>
+      </c>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="218">
+        <v>0</v>
+      </c>
+      <c r="U15" s="223">
+        <v>0</v>
+      </c>
+      <c r="V15" s="224">
         <f>Scenarios!U6</f>
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="Y15" s="218">
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="224">
         <f>Scenarios!V6</f>
         <v>7.7933579200000009</v>
       </c>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="218">
+      <c r="Z15" s="223"/>
+      <c r="AA15" s="224">
         <f>Scenarios!W6</f>
         <v>309.96310400000004</v>
       </c>
+    </row>
+    <row r="16" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="217"/>
+      <c r="Q16" s="217"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14013,7 +14140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14454,8 +14581,8 @@
   </sheetPr>
   <dimension ref="B2:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14479,8 +14606,8 @@
       <c r="AA2" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="AL2" t="s">
-        <v>295</v>
+      <c r="AL2" s="89" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="2:42" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -14490,19 +14617,19 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="237" t="s">
+      <c r="Q3" s="241" t="s">
         <v>260</v>
       </c>
       <c r="R3" s="199"/>
-      <c r="S3" s="223" t="s">
+      <c r="S3" s="227" t="s">
         <v>261</v>
       </c>
-      <c r="T3" s="224"/>
+      <c r="T3" s="228"/>
       <c r="U3" s="199"/>
-      <c r="V3" s="223" t="s">
+      <c r="V3" s="227" t="s">
         <v>262</v>
       </c>
-      <c r="W3" s="224"/>
+      <c r="W3" s="228"/>
       <c r="AC3" s="211"/>
       <c r="AL3" s="211" t="s">
         <v>295</v>
@@ -14524,7 +14651,7 @@
       <c r="C4" s="176" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" s="238"/>
+      <c r="Q4" s="242"/>
       <c r="R4" s="200">
         <v>2030</v>
       </c>
@@ -14658,39 +14785,39 @@
       <c r="W7" s="205">
         <v>818.30256000000008</v>
       </c>
-      <c r="AL7" s="228" t="s">
+      <c r="AL7" s="232" t="s">
         <v>298</v>
       </c>
-      <c r="AM7" s="229"/>
-      <c r="AN7" s="229"/>
-      <c r="AO7" s="230"/>
+      <c r="AM7" s="233"/>
+      <c r="AN7" s="233"/>
+      <c r="AO7" s="234"/>
     </row>
     <row r="8" spans="2:42" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="175"/>
       <c r="C8" s="175"/>
-      <c r="Q8" s="225" t="s">
+      <c r="Q8" s="229" t="s">
         <v>299</v>
       </c>
-      <c r="R8" s="226"/>
-      <c r="S8" s="226"/>
-      <c r="T8" s="226"/>
-      <c r="U8" s="226"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="227"/>
-      <c r="AL8" s="231" t="s">
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="231"/>
+      <c r="AL8" s="235" t="s">
         <v>296</v>
       </c>
-      <c r="AM8" s="232"/>
-      <c r="AN8" s="232"/>
-      <c r="AO8" s="233"/>
+      <c r="AM8" s="236"/>
+      <c r="AN8" s="236"/>
+      <c r="AO8" s="237"/>
     </row>
     <row r="9" spans="2:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL9" s="234" t="s">
+      <c r="AL9" s="238" t="s">
         <v>297</v>
       </c>
-      <c r="AM9" s="235"/>
-      <c r="AN9" s="235"/>
-      <c r="AO9" s="236"/>
+      <c r="AM9" s="239"/>
+      <c r="AN9" s="239"/>
+      <c r="AO9" s="240"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AA14" s="100" t="s">
@@ -14799,7 +14926,7 @@
       <c r="AB16" t="s">
         <v>116</v>
       </c>
-      <c r="AC16" s="221" t="s">
+      <c r="AC16" s="215" t="s">
         <v>271</v>
       </c>
       <c r="AF16" s="182">
@@ -15140,20 +15267,17 @@
         <v>99.500022283199996</v>
       </c>
       <c r="AQ24" s="148">
-        <f t="shared" ref="AQ24:AS26" si="4">MEDIAN($AN24:$AP24)+AM4</f>
         <v>140.45051883561732</v>
       </c>
       <c r="AR24" s="148">
-        <f t="shared" si="4"/>
         <v>137.99364982983465</v>
       </c>
       <c r="AS24" s="148">
-        <f t="shared" si="4"/>
-        <v>137.93364982983465</v>
+        <v>91.72151578941255</v>
       </c>
       <c r="AU24">
         <f>AS24/AM24</f>
-        <v>1.0083378396918803</v>
+        <v>0.67051278059022568</v>
       </c>
     </row>
     <row r="25" spans="2:49" ht="15" x14ac:dyDescent="0.25">
@@ -15207,7 +15331,7 @@
         <v>Medium</v>
       </c>
       <c r="AM25">
-        <f t="shared" ref="AM25:AM26" si="5">MEDIAN(AN25:AP25)</f>
+        <f t="shared" ref="AM25:AM26" si="4">MEDIAN(AN25:AP25)</f>
         <v>136.7930909664</v>
       </c>
       <c r="AN25">
@@ -15215,7 +15339,7 @@
         <v>138.9392308656</v>
       </c>
       <c r="AO25">
-        <f t="shared" ref="AO25:AP26" si="6">AO24</f>
+        <f t="shared" ref="AO25:AP26" si="5">AO24</f>
         <v>136.7930909664</v>
       </c>
       <c r="AP25">
@@ -15223,24 +15347,19 @@
         <v>99.500022283199996</v>
       </c>
       <c r="AQ25" s="148">
-        <f t="shared" si="4"/>
         <v>140.62042040052222</v>
       </c>
       <c r="AR25" s="148">
-        <f>MEDIAN($AN25:$AP25)*0.75+AN5</f>
-        <v>135.93802235772677</v>
+        <v>170.13629509932673</v>
       </c>
       <c r="AS25" s="148">
-        <f>MEDIAN($AN25:$AP25)*0.5+AO5</f>
-        <v>504.64573096167442</v>
+        <v>526.83014240445232</v>
       </c>
       <c r="AU25">
         <f>AS25/AM25</f>
-        <v>3.6891170993835409</v>
-      </c>
-      <c r="AW25" s="89" t="s">
-        <v>314</v>
-      </c>
+        <v>3.8512920402818862</v>
+      </c>
+      <c r="AW25" s="89"/>
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="I26">
@@ -15273,7 +15392,7 @@
         <v>High</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>136.7930909664</v>
       </c>
       <c r="AN26">
@@ -15281,28 +15400,25 @@
         <v>138.9392308656</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>136.7930909664</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99.500022283199996</v>
       </c>
       <c r="AQ26" s="148">
-        <f t="shared" si="4"/>
         <v>196.35923549853283</v>
       </c>
       <c r="AR26" s="148">
-        <f t="shared" si="4"/>
         <v>679.22700966264995</v>
       </c>
       <c r="AS26" s="148">
-        <f t="shared" si="4"/>
-        <v>1509.82947857265</v>
+        <v>1463.6173445322279</v>
       </c>
       <c r="AU26">
         <f>AS26/AM26</f>
-        <v>11.037322630157572</v>
+        <v>10.699497571055916</v>
       </c>
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.2">
@@ -15738,12 +15854,12 @@
       <c r="AA42" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="AE42" s="220">
-        <f t="shared" ref="AE42" si="7">AE32/SUM(AE25:AE39)</f>
+      <c r="AE42" s="214">
+        <f t="shared" ref="AE42" si="6">AE32/SUM(AE25:AE39)</f>
         <v>4.6157376605006142E-2</v>
       </c>
-      <c r="AF42" s="220"/>
-      <c r="AG42" s="220">
+      <c r="AF42" s="214"/>
+      <c r="AG42" s="214">
         <f>AG32/SUM(AG25:AG39)</f>
         <v>4.5196011737906945E-2</v>
       </c>
@@ -15830,7 +15946,7 @@
       </c>
     </row>
     <row r="53" spans="17:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="Q53" s="222" t="s">
+      <c r="Q53" s="216" t="s">
         <v>313</v>
       </c>
     </row>

--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FED8AF-BAAF-4557-AF17-0E7C7AA3AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C339E-97B0-4700-B17F-33545B8D962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="14" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="1560" yWindow="120" windowWidth="25560" windowHeight="15450" tabRatio="796" firstSheet="3" activeTab="12" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="ANSv2-692-Constraints" sheetId="23" state="veryHidden" r:id="rId10"/>
     <sheet name="ANSv2-692-CommData" sheetId="21" state="veryHidden" r:id="rId11"/>
     <sheet name="CommData_BASE" sheetId="30" r:id="rId12"/>
-    <sheet name="Processes_BASE" sheetId="31" r:id="rId13"/>
-    <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId14"/>
-    <sheet name="ProcData_exportLevels" sheetId="74" r:id="rId15"/>
+    <sheet name="ProcData_exportLevels" sheetId="74" r:id="rId13"/>
+    <sheet name="Processes_BASE" sheetId="31" r:id="rId14"/>
+    <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId15"/>
     <sheet name="ProcData_exportPrices" sheetId="76" r:id="rId16"/>
     <sheet name="Exports summary" sheetId="65" r:id="rId17"/>
     <sheet name="Scenarios" sheetId="77" r:id="rId18"/>
@@ -48,7 +48,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="14" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="12" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -104,75 +104,6 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E675FE30-2045-4711-929A-2790AA80926A}</author>
-    <author>tc={E49AB5DA-A399-4F48-82A4-0E5DB3EB90DB}</author>
-    <author>tc={9B9E236E-1FD4-4E7D-86A1-A5F5C09A628D}</author>
-    <author>tc={5D095352-6659-46B0-BC54-2028B3502852}</author>
-  </authors>
-  <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E675FE30-2045-4711-929A-2790AA80926A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{E49AB5DA-A399-4F48-82A4-0E5DB3EB90DB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="2" shapeId="0" xr:uid="{9B9E236E-1FD4-4E7D-86A1-A5F5C09A628D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="3" shapeId="0" xr:uid="{5D095352-6659-46B0-BC54-2028B3502852}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ken Noble</author>
-  </authors>
-  <commentList>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If Process Activity is: Output-based, leave blank.
-Input-based, insert I.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>Ken Noble</author>
     <author>tc={B2628858-B6B6-4838-9180-F4C75E4FE2C9}</author>
     <author>Fadiel</author>
@@ -221,6 +152,75 @@
           </rPr>
           <t xml:space="preserve">
 based on converison of existing CTL facility</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E675FE30-2045-4711-929A-2790AA80926A}</author>
+    <author>tc={E49AB5DA-A399-4F48-82A4-0E5DB3EB90DB}</author>
+    <author>tc={9B9E236E-1FD4-4E7D-86A1-A5F5C09A628D}</author>
+    <author>tc={5D095352-6659-46B0-BC54-2028B3502852}</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E675FE30-2045-4711-929A-2790AA80926A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{E49AB5DA-A399-4F48-82A4-0E5DB3EB90DB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="2" shapeId="0" xr:uid="{9B9E236E-1FD4-4E7D-86A1-A5F5C09A628D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="3" shapeId="0" xr:uid="{5D095352-6659-46B0-BC54-2028B3502852}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    IRE seems to have a problem with TOPxx parameters in the new import templates</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ken Noble</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If Process Activity is: Output-based, leave blank.
+Input-based, insert I.</t>
         </r>
       </text>
     </comment>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="317">
   <si>
     <t>Comment</t>
   </si>
@@ -1416,6 +1416,12 @@
   </si>
   <si>
     <t>Net platinum demand (tonnes) for the transtion</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>PJ/mtons</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2265,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2677,6 +2683,15 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2821,7 +2836,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2953,7 +2968,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3041,7 +3056,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3085,7 +3100,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3605,6 +3620,185 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128001" name="cmdSpecifySets" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s128001"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001F40100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128002" name="cmdCheckTechnologiesSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s128002"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002F40100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128003" name="cmdProcUnits" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s128003"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003F40100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
@@ -3973,417 +4167,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008BC0100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206849" name="cmdTechNameAndDesc" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206849"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001280300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206850" name="cmdCommIN" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206850"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002280300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206851" name="cmdCommOUT" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206851"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003280300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206852" name="cmdAddParameter" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206852"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004280300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206853" name="cmdAddParamQualifier1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206853"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005280300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206854" name="cmdCheckTechDataSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206854"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006280300}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206855" name="cmdAddParamQualifier2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s206855"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10386,26 +10169,142 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="206849" name="cmdTechNameAndDesc" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s206849"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001280300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="128001" name="cmdSpecifySets" hidden="1">
+            <xdr:cNvPr id="206850" name="cmdCommIN" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s128001"/>
+                  <a14:compatExt spid="_x0000_s206850"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002280300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="206851" name="cmdCommOUT" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s206851"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10447,23 +10346,23 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="128002" name="cmdCheckTechnologiesSheet" hidden="1">
+            <xdr:cNvPr id="206852" name="cmdAddParameter" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s128002"/>
+                  <a14:compatExt spid="_x0000_s206852"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10502,26 +10401,142 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="206853" name="cmdAddParamQualifier1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s206853"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005280300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="206854" name="cmdCheckTechDataSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s206854"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006280300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="128003" name="cmdProcUnits" hidden="1">
+            <xdr:cNvPr id="206855" name="cmdAddParamQualifier2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s128003"/>
+                  <a14:compatExt spid="_x0000_s206855"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11111,6 +11126,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K9" dT="2021-09-22T07:45:53.23" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
+    <text>Interpolation and forward extrapolation</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="E9" dT="2021-09-09T14:00:31.81" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{E675FE30-2045-4711-929A-2790AA80926A}">
     <text>IRE seems to have a problem with TOPxx parameters in the new import templates</text>
   </threadedComment>
@@ -11122,14 +11145,6 @@
   </threadedComment>
   <threadedComment ref="E12" dT="2021-09-09T14:00:31.81" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{5D095352-6659-46B0-BC54-2028B3502852}">
     <text>IRE seems to have a problem with TOPxx parameters in the new import templates</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K9" dT="2021-09-22T07:45:53.23" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{B2628858-B6B6-4838-9180-F4C75E4FE2C9}">
-    <text>Interpolation and forward extrapolation</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -11201,52 +11216,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11276,52 +11291,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11397,18 +11412,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11417,7 +11432,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11447,18 +11462,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11467,7 +11482,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11524,19 +11539,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11544,32 +11584,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11599,19 +11614,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11619,32 +11659,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11828,52 +11843,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11903,33 +11918,1081 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3728BB-F266-4854-BC5D-903B193E720B}">
+  <sheetPr codeName="Sheet31">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" style="12"/>
+    <col min="16" max="17" width="11.42578125" style="12" customWidth="1"/>
+    <col min="18" max="20" width="10.85546875" style="12" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
+        <v>ProcData</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>Commodities_BASE!B1</f>
+        <v>REGION1</v>
+      </c>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
+        <v>ProcData_exportLevels</v>
+      </c>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="H3" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="W4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="X4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z4" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" s="165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="H5" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="26" t="str">
+        <f>F13</f>
+        <v>IDUM</v>
+      </c>
+      <c r="K5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="U5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="V5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="X5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z5" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA5" s="165" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="H6" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="217">
+        <v>2012</v>
+      </c>
+      <c r="M7" s="217">
+        <v>2013</v>
+      </c>
+      <c r="N7" s="217">
+        <v>2014</v>
+      </c>
+      <c r="O7" s="217">
+        <v>2015</v>
+      </c>
+      <c r="P7" s="217">
+        <v>2016</v>
+      </c>
+      <c r="Q7" s="217">
+        <v>2017</v>
+      </c>
+      <c r="R7" s="217">
+        <v>2018</v>
+      </c>
+      <c r="S7" s="217">
+        <v>2019</v>
+      </c>
+      <c r="T7" s="218">
+        <v>2020</v>
+      </c>
+      <c r="U7" s="221">
+        <v>2025</v>
+      </c>
+      <c r="V7" s="221">
+        <v>2030</v>
+      </c>
+      <c r="W7" s="221">
+        <v>2035</v>
+      </c>
+      <c r="X7" s="221">
+        <v>2039</v>
+      </c>
+      <c r="Y7" s="221">
+        <v>2040</v>
+      </c>
+      <c r="Z7" s="221">
+        <v>2045</v>
+      </c>
+      <c r="AA7" s="221">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="str">
+        <f>Processes_BASE!A8</f>
+        <v>* Conversion technologies</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="106"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="221"/>
+      <c r="Y8" s="221"/>
+      <c r="Z8" s="221"/>
+      <c r="AA8" s="221"/>
+    </row>
+    <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="str">
+        <f>Processes_BASE!B9</f>
+        <v>PEXPGM</v>
+      </c>
+      <c r="C9" s="12" t="str">
+        <f>Processes_BASE!C9</f>
+        <v>Export PGMs - Pt</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f>Processes_BASE!D9</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E9" s="12" t="str">
+        <f>RES!Q2</f>
+        <v>IPGM</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f>Commodities_BASE!B11</f>
+        <v>IDUM</v>
+      </c>
+      <c r="G9" s="198"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="164">
+        <v>5</v>
+      </c>
+      <c r="L9" s="219">
+        <f>'Exports summary'!G7</f>
+        <v>124.69952392131813</v>
+      </c>
+      <c r="M9" s="219">
+        <f>'Exports summary'!H7</f>
+        <v>130.71131620168498</v>
+      </c>
+      <c r="N9" s="219">
+        <f>'Exports summary'!I7</f>
+        <v>84.02169487089688</v>
+      </c>
+      <c r="O9" s="219">
+        <f>'Exports summary'!J7</f>
+        <v>133.92546693812523</v>
+      </c>
+      <c r="P9" s="219">
+        <f>'Exports summary'!K7</f>
+        <v>127.71131620168498</v>
+      </c>
+      <c r="Q9" s="219">
+        <f>'Exports summary'!L7</f>
+        <v>125.30659928953824</v>
+      </c>
+      <c r="R9" s="219">
+        <v>132.92896377787815</v>
+      </c>
+      <c r="S9" s="219">
+        <v>143.56859209868344</v>
+      </c>
+      <c r="T9" s="220">
+        <v>107.43885384834891</v>
+      </c>
+      <c r="U9" s="222">
+        <f>MEDIAN(R9:S9)</f>
+        <v>138.2487779382808</v>
+      </c>
+      <c r="V9" s="226">
+        <f>Scenarios!AQ25</f>
+        <v>140.62042040052222</v>
+      </c>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="222">
+        <f>Scenarios!AR25</f>
+        <v>170.13629509932673</v>
+      </c>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222">
+        <f>Scenarios!AS25</f>
+        <v>526.83014240445232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="str">
+        <f>Processes_BASE!B10</f>
+        <v>PEXPGMO</v>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f>Processes_BASE!C10</f>
+        <v>Export PGMs - Others</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>Processes_BASE!D10</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E10" s="12" t="str">
+        <f>RES!R2</f>
+        <v>IPGMOP</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>F9</f>
+        <v>IDUM</v>
+      </c>
+      <c r="G10" s="198"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="164">
+        <v>5</v>
+      </c>
+      <c r="L10" s="219">
+        <f>'Exports summary'!G8</f>
+        <v>101.30047607868187</v>
+      </c>
+      <c r="M10" s="219">
+        <f>'Exports summary'!H8</f>
+        <v>105.28868379831502</v>
+      </c>
+      <c r="N10" s="219">
+        <f>'Exports summary'!I8</f>
+        <v>74.97830512910312</v>
+      </c>
+      <c r="O10" s="219">
+        <f>'Exports summary'!J8</f>
+        <v>110.07453306187479</v>
+      </c>
+      <c r="P10" s="219">
+        <f>'Exports summary'!K8</f>
+        <v>105.28868379831502</v>
+      </c>
+      <c r="Q10" s="219">
+        <f>'Exports summary'!L8</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="R10" s="219"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="220">
+        <f>Q10</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="U10" s="222">
+        <f>'Exports summary'!O8</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="V10" s="222">
+        <f>'Exports summary'!P8</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222">
+        <f>'Exports summary'!T8</f>
+        <v>103.69340071046176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="str">
+        <f>Processes_BASE!B11</f>
+        <v>PEXNH3</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>Processes_BASE!C11</f>
+        <v>Ammonia to Export Market</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f>Processes_BASE!D11</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>Commodities_BASE!B12</f>
+        <v>NH3</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>F10</f>
+        <v>IDUM</v>
+      </c>
+      <c r="G11" s="198"/>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>5</v>
+      </c>
+      <c r="L11" s="217">
+        <v>2.7578</v>
+      </c>
+      <c r="M11" s="217"/>
+      <c r="N11" s="217"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="217"/>
+      <c r="Q11" s="217"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="218"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224">
+        <f>'Exports summary'!P16</f>
+        <v>2.7578253706754534</v>
+      </c>
+      <c r="W11" s="223" t="str">
+        <f>'Exports summary'!Q16</f>
+        <v/>
+      </c>
+      <c r="X11" s="223" t="str">
+        <f>'Exports summary'!R16</f>
+        <v/>
+      </c>
+      <c r="Y11" s="223" t="str">
+        <f>'Exports summary'!R16</f>
+        <v/>
+      </c>
+      <c r="Z11" s="223" t="str">
+        <f>'Exports summary'!S16</f>
+        <v/>
+      </c>
+      <c r="AA11" s="223">
+        <f>'Exports summary'!T16</f>
+        <v>124.155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="str">
+        <f>Processes_BASE!B12</f>
+        <v>PEXGDRI</v>
+      </c>
+      <c r="C12" s="12" t="str">
+        <f>Processes_BASE!C12</f>
+        <v>Exports of Green Iron</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>Processes_BASE!D12</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f>Commodities_BASE!B13</f>
+        <v>IISHBI</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f>F11</f>
+        <v>IDUM</v>
+      </c>
+      <c r="G12" s="198"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="217"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="223" t="str">
+        <f>'Exports summary'!O11</f>
+        <v/>
+      </c>
+      <c r="V12" s="223">
+        <f>'Exports summary'!P11</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="223" t="str">
+        <f>'Exports summary'!Q11</f>
+        <v/>
+      </c>
+      <c r="X12" s="223" t="str">
+        <f>'Exports summary'!R11</f>
+        <v/>
+      </c>
+      <c r="Y12" s="223" t="str">
+        <f>'Exports summary'!R11</f>
+        <v/>
+      </c>
+      <c r="Z12" s="223" t="str">
+        <f>'Exports summary'!S11</f>
+        <v/>
+      </c>
+      <c r="AA12" s="223">
+        <f>'Exports summary'!T11</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="str">
+        <f>Processes_BASE!B13</f>
+        <v>PEXOKG</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>Processes_BASE!C13</f>
+        <v>Exports of Green JetFuel</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>Processes_BASE!D13</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <f>Commodities_BASE!B14</f>
+        <v>OKG</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" ref="F13:F15" si="0">F12</f>
+        <v>IDUM</v>
+      </c>
+      <c r="G13" s="198"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>5</v>
+      </c>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="217"/>
+      <c r="Q13" s="217"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="218"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="222">
+        <f>Scenarios!AF16</f>
+        <v>5.0430461919999994</v>
+      </c>
+      <c r="Z13" s="222">
+        <f>Y13</f>
+        <v>5.0430461919999994</v>
+      </c>
+      <c r="AA13" s="222">
+        <f>Scenarios!AG16</f>
+        <v>10.086092383999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="str">
+        <f>Processes_BASE!B14</f>
+        <v>PEXHETP</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>Processes_BASE!C14</f>
+        <v>H2 PEM Electrolyser Stack Exports (GW)</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>Processes_BASE!D14</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f>Commodities_BASE!B15</f>
+        <v>HETP_EX</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>IDUM</v>
+      </c>
+      <c r="G14" s="198"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>5</v>
+      </c>
+      <c r="L14" s="217">
+        <v>0</v>
+      </c>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217">
+        <v>0</v>
+      </c>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="218">
+        <v>0</v>
+      </c>
+      <c r="U14" s="223"/>
+      <c r="V14" s="223">
+        <f>Scenarios!R6</f>
+        <v>0.2</v>
+      </c>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="225">
+        <f>Scenarios!S6</f>
+        <v>2.3572743999999997</v>
+      </c>
+      <c r="Z14" s="225"/>
+      <c r="AA14" s="225">
+        <f>Scenarios!T6</f>
+        <v>21.333332000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="str">
+        <f>Processes_BASE!B15</f>
+        <v>PEXHFCP</v>
+      </c>
+      <c r="C15" s="12" t="str">
+        <f>Processes_BASE!C15</f>
+        <v>H2 PEM Fuel Cell Exports (GW)</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>Processes_BASE!D15</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E15" s="12" t="str">
+        <f>Commodities_BASE!B16</f>
+        <v>HFCP_EX</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>IDUM</v>
+      </c>
+      <c r="G15" s="198"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>5</v>
+      </c>
+      <c r="L15" s="217">
+        <v>0</v>
+      </c>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217">
+        <v>0</v>
+      </c>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="218">
+        <v>0</v>
+      </c>
+      <c r="U15" s="223">
+        <v>0</v>
+      </c>
+      <c r="V15" s="224">
+        <f>Scenarios!U6</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="224">
+        <f>Scenarios!V6</f>
+        <v>7.7933579200000009</v>
+      </c>
+      <c r="Z15" s="223"/>
+      <c r="AA15" s="224">
+        <f>Scenarios!W6</f>
+        <v>309.96310400000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="217"/>
+      <c r="Q16" s="217"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
+    </row>
+    <row r="23" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="243" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243">
+        <v>2020</v>
+      </c>
+      <c r="F23" s="243">
+        <v>2030</v>
+      </c>
+      <c r="G23" s="244">
+        <v>2040</v>
+      </c>
+      <c r="H23" s="243">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="243" t="str">
+        <f>C9</f>
+        <v>Export PGMs - Pt</v>
+      </c>
+      <c r="D24" s="243" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="245">
+        <f>T9</f>
+        <v>107.43885384834891</v>
+      </c>
+      <c r="F24" s="246">
+        <f>V9</f>
+        <v>140.62042040052222</v>
+      </c>
+      <c r="G24" s="247">
+        <f>Y9</f>
+        <v>170.13629509932673</v>
+      </c>
+      <c r="H24" s="245">
+        <f>AA9</f>
+        <v>526.83014240445232</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="243" t="str">
+        <f t="shared" ref="C25:C31" si="1">C10</f>
+        <v>Export PGMs - Others</v>
+      </c>
+      <c r="D25" s="243" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="245">
+        <f t="shared" ref="E25:E30" si="2">T10</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="F25" s="246">
+        <f t="shared" ref="F25:F30" si="3">V10</f>
+        <v>103.69340071046176</v>
+      </c>
+      <c r="G25" s="247">
+        <f t="shared" ref="G25:G30" si="4">Y10</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="245">
+        <f t="shared" ref="H25:H30" si="5">AA10</f>
+        <v>103.69340071046176</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Ammonia to Export Market</v>
+      </c>
+      <c r="D26" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="245">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="246">
+        <f t="shared" si="3"/>
+        <v>2.7578253706754534</v>
+      </c>
+      <c r="G26" s="247" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H26" s="245">
+        <f t="shared" si="5"/>
+        <v>124.155</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Exports of Green Iron</v>
+      </c>
+      <c r="D27" s="243" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="245">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="246">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="247" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H27" s="245">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>Exports of Green JetFuel</v>
+      </c>
+      <c r="D28" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="245">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="247">
+        <f t="shared" si="4"/>
+        <v>5.0430461919999994</v>
+      </c>
+      <c r="H28" s="245">
+        <f t="shared" si="5"/>
+        <v>10.086092383999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>H2 PEM Electrolyser Stack Exports (GW)</v>
+      </c>
+      <c r="D29" s="243" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="245">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="246">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="247">
+        <f t="shared" si="4"/>
+        <v>2.3572743999999997</v>
+      </c>
+      <c r="H29" s="245">
+        <f t="shared" si="5"/>
+        <v>21.333332000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="243" t="str">
+        <f t="shared" si="1"/>
+        <v>H2 PEM Fuel Cell Exports (GW)</v>
+      </c>
+      <c r="D30" s="243" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="245">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="246">
+        <f t="shared" si="3"/>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="G30" s="247">
+        <f t="shared" si="4"/>
+        <v>7.7933579200000009</v>
+      </c>
+      <c r="H30" s="245">
+        <f t="shared" si="5"/>
+        <v>309.96310400000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11939,23 +13002,173 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206852" r:id="rId10" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206852" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="4"/>
@@ -12352,18 +13565,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12372,7 +13585,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12402,18 +13615,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12422,14 +13635,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -12503,43 +13716,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12548,32 +13736,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12603,18 +13816,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12623,1043 +13861,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3728BB-F266-4854-BC5D-903B193E720B}">
-  <sheetPr codeName="Sheet31">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:AA16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:T15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" style="12"/>
-    <col min="16" max="17" width="11.42578125" style="12" customWidth="1"/>
-    <col min="18" max="20" width="10.85546875" style="12" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="str">
-        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
-        <v>ProcData</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>Commodities_BASE!B1</f>
-        <v>REGION1</v>
-      </c>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
-        <v>ProcData_exportLevels</v>
-      </c>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="H3" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="P4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="R4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="S4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="T4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="V4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="W4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="X4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z4" s="165" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA4" s="165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="H5" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="26" t="str">
-        <f>F13</f>
-        <v>IDUM</v>
-      </c>
-      <c r="K5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="R5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="V5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z5" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA5" s="165" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="H6" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="217">
-        <v>2012</v>
-      </c>
-      <c r="M7" s="217">
-        <v>2013</v>
-      </c>
-      <c r="N7" s="217">
-        <v>2014</v>
-      </c>
-      <c r="O7" s="217">
-        <v>2015</v>
-      </c>
-      <c r="P7" s="217">
-        <v>2016</v>
-      </c>
-      <c r="Q7" s="217">
-        <v>2017</v>
-      </c>
-      <c r="R7" s="217">
-        <v>2018</v>
-      </c>
-      <c r="S7" s="217">
-        <v>2019</v>
-      </c>
-      <c r="T7" s="218">
-        <v>2020</v>
-      </c>
-      <c r="U7" s="221">
-        <v>2025</v>
-      </c>
-      <c r="V7" s="221">
-        <v>2030</v>
-      </c>
-      <c r="W7" s="221">
-        <v>2035</v>
-      </c>
-      <c r="X7" s="221">
-        <v>2039</v>
-      </c>
-      <c r="Y7" s="221">
-        <v>2040</v>
-      </c>
-      <c r="Z7" s="221">
-        <v>2045</v>
-      </c>
-      <c r="AA7" s="221">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="str">
-        <f>Processes_BASE!A8</f>
-        <v>* Conversion technologies</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="106"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="221"/>
-      <c r="X8" s="221"/>
-      <c r="Y8" s="221"/>
-      <c r="Z8" s="221"/>
-      <c r="AA8" s="221"/>
-    </row>
-    <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="str">
-        <f>Processes_BASE!B9</f>
-        <v>PEXPGM</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <f>Processes_BASE!C9</f>
-        <v>Export PGMs - Pt</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f>Processes_BASE!D9</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>RES!Q2</f>
-        <v>IPGM</v>
-      </c>
-      <c r="F9" s="12" t="str">
-        <f>Commodities_BASE!B11</f>
-        <v>IDUM</v>
-      </c>
-      <c r="G9" s="198"/>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="164">
-        <v>5</v>
-      </c>
-      <c r="L9" s="219">
-        <f>'Exports summary'!G7</f>
-        <v>124.69952392131813</v>
-      </c>
-      <c r="M9" s="219">
-        <f>'Exports summary'!H7</f>
-        <v>130.71131620168498</v>
-      </c>
-      <c r="N9" s="219">
-        <f>'Exports summary'!I7</f>
-        <v>84.02169487089688</v>
-      </c>
-      <c r="O9" s="219">
-        <f>'Exports summary'!J7</f>
-        <v>133.92546693812523</v>
-      </c>
-      <c r="P9" s="219">
-        <f>'Exports summary'!K7</f>
-        <v>127.71131620168498</v>
-      </c>
-      <c r="Q9" s="219">
-        <f>'Exports summary'!L7</f>
-        <v>125.30659928953824</v>
-      </c>
-      <c r="R9" s="219">
-        <v>132.92896377787815</v>
-      </c>
-      <c r="S9" s="219">
-        <v>143.56859209868344</v>
-      </c>
-      <c r="T9" s="220">
-        <v>107.43885384834891</v>
-      </c>
-      <c r="U9" s="222">
-        <f>MEDIAN(R9:S9)</f>
-        <v>138.2487779382808</v>
-      </c>
-      <c r="V9" s="226">
-        <f>Scenarios!AQ25</f>
-        <v>140.62042040052222</v>
-      </c>
-      <c r="W9" s="223"/>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="222">
-        <f>Scenarios!AR25</f>
-        <v>170.13629509932673</v>
-      </c>
-      <c r="Z9" s="222"/>
-      <c r="AA9" s="222">
-        <f>Scenarios!AS25</f>
-        <v>526.83014240445232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="str">
-        <f>Processes_BASE!B10</f>
-        <v>PEXPGMO</v>
-      </c>
-      <c r="C10" s="12" t="str">
-        <f>Processes_BASE!C10</f>
-        <v>Export PGMs - Others</v>
-      </c>
-      <c r="D10" s="12" t="str">
-        <f>Processes_BASE!D10</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <f>RES!R2</f>
-        <v>IPGMOP</v>
-      </c>
-      <c r="F10" s="12" t="str">
-        <f>F9</f>
-        <v>IDUM</v>
-      </c>
-      <c r="G10" s="198"/>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="164">
-        <v>5</v>
-      </c>
-      <c r="L10" s="219">
-        <f>'Exports summary'!G8</f>
-        <v>101.30047607868187</v>
-      </c>
-      <c r="M10" s="219">
-        <f>'Exports summary'!H8</f>
-        <v>105.28868379831502</v>
-      </c>
-      <c r="N10" s="219">
-        <f>'Exports summary'!I8</f>
-        <v>74.97830512910312</v>
-      </c>
-      <c r="O10" s="219">
-        <f>'Exports summary'!J8</f>
-        <v>110.07453306187479</v>
-      </c>
-      <c r="P10" s="219">
-        <f>'Exports summary'!K8</f>
-        <v>105.28868379831502</v>
-      </c>
-      <c r="Q10" s="219">
-        <f>'Exports summary'!L8</f>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="R10" s="219"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="220">
-        <f>Q10</f>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="U10" s="222">
-        <f>'Exports summary'!O8</f>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="V10" s="222">
-        <f>'Exports summary'!P8</f>
-        <v>103.69340071046176</v>
-      </c>
-      <c r="W10" s="222"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="222"/>
-      <c r="Z10" s="222"/>
-      <c r="AA10" s="222">
-        <f>'Exports summary'!T8</f>
-        <v>103.69340071046176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="str">
-        <f>Processes_BASE!B11</f>
-        <v>PEXNH3</v>
-      </c>
-      <c r="C11" s="12" t="str">
-        <f>Processes_BASE!C11</f>
-        <v>Ammonia to Export Market</v>
-      </c>
-      <c r="D11" s="12" t="str">
-        <f>Processes_BASE!D11</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f>Commodities_BASE!B12</f>
-        <v>NH3</v>
-      </c>
-      <c r="F11" s="12" t="str">
-        <f>F10</f>
-        <v>IDUM</v>
-      </c>
-      <c r="G11" s="198"/>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12">
-        <v>5</v>
-      </c>
-      <c r="L11" s="217">
-        <v>2.7578</v>
-      </c>
-      <c r="M11" s="217"/>
-      <c r="N11" s="217"/>
-      <c r="O11" s="217"/>
-      <c r="P11" s="217"/>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="218"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224">
-        <f>'Exports summary'!P16</f>
-        <v>2.7578253706754534</v>
-      </c>
-      <c r="W11" s="223" t="str">
-        <f>'Exports summary'!Q16</f>
-        <v/>
-      </c>
-      <c r="X11" s="223" t="str">
-        <f>'Exports summary'!R16</f>
-        <v/>
-      </c>
-      <c r="Y11" s="223" t="str">
-        <f>'Exports summary'!R16</f>
-        <v/>
-      </c>
-      <c r="Z11" s="223" t="str">
-        <f>'Exports summary'!S16</f>
-        <v/>
-      </c>
-      <c r="AA11" s="223">
-        <f>'Exports summary'!T16</f>
-        <v>124.155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="str">
-        <f>Processes_BASE!B12</f>
-        <v>PEXGDRI</v>
-      </c>
-      <c r="C12" s="12" t="str">
-        <f>Processes_BASE!C12</f>
-        <v>Exports of Green Iron</v>
-      </c>
-      <c r="D12" s="12" t="str">
-        <f>Processes_BASE!D12</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E12" s="12" t="str">
-        <f>Commodities_BASE!B13</f>
-        <v>IISHBI</v>
-      </c>
-      <c r="F12" s="12" t="str">
-        <f>F11</f>
-        <v>IDUM</v>
-      </c>
-      <c r="G12" s="198"/>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>5</v>
-      </c>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="223" t="str">
-        <f>'Exports summary'!O11</f>
-        <v/>
-      </c>
-      <c r="V12" s="223">
-        <f>'Exports summary'!P11</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="223" t="str">
-        <f>'Exports summary'!Q11</f>
-        <v/>
-      </c>
-      <c r="X12" s="223" t="str">
-        <f>'Exports summary'!R11</f>
-        <v/>
-      </c>
-      <c r="Y12" s="223" t="str">
-        <f>'Exports summary'!R11</f>
-        <v/>
-      </c>
-      <c r="Z12" s="223" t="str">
-        <f>'Exports summary'!S11</f>
-        <v/>
-      </c>
-      <c r="AA12" s="223">
-        <f>'Exports summary'!T11</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="str">
-        <f>Processes_BASE!B13</f>
-        <v>PEXOKG</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>Processes_BASE!C13</f>
-        <v>Exports of Green JetFuel</v>
-      </c>
-      <c r="D13" s="12" t="str">
-        <f>Processes_BASE!D13</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E13" s="12" t="str">
-        <f>Commodities_BASE!B14</f>
-        <v>OKG</v>
-      </c>
-      <c r="F13" s="12" t="str">
-        <f t="shared" ref="F13:F15" si="0">F12</f>
-        <v>IDUM</v>
-      </c>
-      <c r="G13" s="198"/>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="12">
-        <v>5</v>
-      </c>
-      <c r="L13" s="217"/>
-      <c r="M13" s="217"/>
-      <c r="N13" s="217"/>
-      <c r="O13" s="217"/>
-      <c r="P13" s="217"/>
-      <c r="Q13" s="217"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="218"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
-      <c r="W13" s="222"/>
-      <c r="X13" s="222">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="222">
-        <f>Scenarios!AF16</f>
-        <v>5.0430461919999994</v>
-      </c>
-      <c r="Z13" s="222">
-        <f>Y13</f>
-        <v>5.0430461919999994</v>
-      </c>
-      <c r="AA13" s="222">
-        <f>Scenarios!AG16</f>
-        <v>10.086092383999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="str">
-        <f>Processes_BASE!B14</f>
-        <v>PEXHETP</v>
-      </c>
-      <c r="C14" s="12" t="str">
-        <f>Processes_BASE!C14</f>
-        <v>H2 PEM Electrolyser Stack Exports (GW)</v>
-      </c>
-      <c r="D14" s="12" t="str">
-        <f>Processes_BASE!D14</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E14" s="12" t="str">
-        <f>Commodities_BASE!B15</f>
-        <v>HETP_EX</v>
-      </c>
-      <c r="F14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>IDUM</v>
-      </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12">
-        <v>5</v>
-      </c>
-      <c r="L14" s="217">
-        <v>0</v>
-      </c>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217">
-        <v>0</v>
-      </c>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="218">
-        <v>0</v>
-      </c>
-      <c r="U14" s="223"/>
-      <c r="V14" s="223">
-        <f>Scenarios!R6</f>
-        <v>0.2</v>
-      </c>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="225">
-        <f>Scenarios!S6</f>
-        <v>2.3572743999999997</v>
-      </c>
-      <c r="Z14" s="225"/>
-      <c r="AA14" s="225">
-        <f>Scenarios!T6</f>
-        <v>21.333332000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="str">
-        <f>Processes_BASE!B15</f>
-        <v>PEXHFCP</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <f>Processes_BASE!C15</f>
-        <v>H2 PEM Fuel Cell Exports (GW)</v>
-      </c>
-      <c r="D15" s="12" t="str">
-        <f>Processes_BASE!D15</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E15" s="12" t="str">
-        <f>Commodities_BASE!B16</f>
-        <v>HFCP_EX</v>
-      </c>
-      <c r="F15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>IDUM</v>
-      </c>
-      <c r="G15" s="198"/>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>5</v>
-      </c>
-      <c r="L15" s="217">
-        <v>0</v>
-      </c>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217">
-        <v>0</v>
-      </c>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="218">
-        <v>0</v>
-      </c>
-      <c r="U15" s="223">
-        <v>0</v>
-      </c>
-      <c r="V15" s="224">
-        <f>Scenarios!U6</f>
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="W15" s="221"/>
-      <c r="X15" s="221"/>
-      <c r="Y15" s="224">
-        <f>Scenarios!V6</f>
-        <v>7.7933579200000009</v>
-      </c>
-      <c r="Z15" s="223"/>
-      <c r="AA15" s="224">
-        <f>Scenarios!W6</f>
-        <v>309.96310400000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L16" s="217"/>
-      <c r="M16" s="217"/>
-      <c r="N16" s="217"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="217"/>
-      <c r="U16" s="221"/>
-      <c r="V16" s="221"/>
-      <c r="W16" s="221"/>
-      <c r="X16" s="221"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="221"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206852" r:id="rId10" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>419100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206852" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -13668,17 +13876,17 @@
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13954,43 +14162,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13999,32 +14182,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14054,18 +14262,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -14074,57 +14307,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14140,7 +14348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14581,8 +14789,8 @@
   </sheetPr>
   <dimension ref="B2:AW53"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14896,23 +15104,23 @@
         <f>'Exports summary'!L7</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="E16" s="175">
+      <c r="E16" s="180">
         <f>D16</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="F16" s="175">
+      <c r="F16" s="180">
         <f t="shared" ref="F16:I16" si="0">E16</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="G16" s="175">
+      <c r="G16" s="180">
         <f t="shared" si="0"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="H16" s="175">
+      <c r="H16" s="180">
         <f t="shared" si="0"/>
         <v>125.30659928953824</v>
       </c>
-      <c r="I16" s="175">
+      <c r="I16" s="180">
         <f t="shared" si="0"/>
         <v>125.30659928953824</v>
       </c>
@@ -14958,23 +15166,23 @@
         <f>'Exports summary'!L8</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="E17" s="175">
+      <c r="E17" s="180">
         <f>D17</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="F17" s="175">
+      <c r="F17" s="180">
         <f t="shared" ref="F17:I17" si="1">E17</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="G17" s="175">
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="H17" s="175">
+      <c r="H17" s="180">
         <f t="shared" si="1"/>
         <v>103.69340071046176</v>
       </c>
-      <c r="I17" s="175">
+      <c r="I17" s="180">
         <f t="shared" si="1"/>
         <v>103.69340071046176</v>
       </c>
@@ -15365,6 +15573,13 @@
       <c r="I26">
         <f>I25*W34/W33</f>
         <v>6.6749999999999998</v>
+      </c>
+      <c r="J26">
+        <f>I25/I26</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>316</v>
       </c>
       <c r="AA26" t="s">
         <v>280</v>
@@ -16883,8 +17098,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16903,182 +17293,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17227,8 +17442,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -17247,82 +17537,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17396,8 +17611,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -17416,232 +17856,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17705,8 +17920,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -17725,182 +18115,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17975,8 +18190,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -17995,232 +18435,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18307,8 +18522,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18327,232 +18767,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18629,8 +18844,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -18649,182 +19039,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18910,8 +19125,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -18930,232 +19370,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22471,8 +22686,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -22491,32 +22731,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22577,18 +22792,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22597,7 +22812,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22627,18 +22842,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22647,7 +22862,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22854,18 +23069,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22874,7 +23089,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22904,18 +23119,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22924,7 +23139,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22997,18 +23212,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -23017,7 +23232,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23047,18 +23262,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -23067,7 +23282,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_GRNEXP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C339E-97B0-4700-B17F-33545B8D962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585BC627-7B50-4D40-9464-A4F6A1010F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="120" windowWidth="25560" windowHeight="15450" tabRatio="796" firstSheet="3" activeTab="12" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25605" windowHeight="14325" tabRatio="796" firstSheet="3" activeTab="17" xr2:uid="{E4E4DEB2-CFB1-442C-9FC5-D51D154627BD}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -2635,6 +2635,15 @@
     <xf numFmtId="2" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="22" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2682,15 +2691,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -2836,7 +2836,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2968,7 +2968,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3056,7 +3056,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3100,7 +3100,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3639,7 +3639,7 @@
                   <a14:compatExt spid="_x0000_s128001"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001F40100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3697,7 +3697,7 @@
                   <a14:compatExt spid="_x0000_s128002"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002F40100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3755,7 +3755,7 @@
                   <a14:compatExt spid="_x0000_s128003"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003F40100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3818,7 +3818,7 @@
                   <a14:compatExt spid="_x0000_s113665"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3876,7 +3876,7 @@
                   <a14:compatExt spid="_x0000_s113666"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3934,7 +3934,7 @@
                   <a14:compatExt spid="_x0000_s113667"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3992,7 +3992,7 @@
                   <a14:compatExt spid="_x0000_s113668"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4050,7 +4050,7 @@
                   <a14:compatExt spid="_x0000_s113669"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4108,7 +4108,7 @@
                   <a14:compatExt spid="_x0000_s113670"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4166,7 +4166,7 @@
                   <a14:compatExt spid="_x0000_s113672"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008BC0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000008BC0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10188,7 +10188,7 @@
                   <a14:compatExt spid="_x0000_s206849"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10246,7 +10246,7 @@
                   <a14:compatExt spid="_x0000_s206850"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10304,7 +10304,7 @@
                   <a14:compatExt spid="_x0000_s206851"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10362,7 +10362,7 @@
                   <a14:compatExt spid="_x0000_s206852"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10420,7 +10420,7 @@
                   <a14:compatExt spid="_x0000_s206853"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10478,7 +10478,7 @@
                   <a14:compatExt spid="_x0000_s206854"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10536,7 +10536,7 @@
                   <a14:compatExt spid="_x0000_s206855"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007280300}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007280300}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10619,7 +10619,13 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="M10" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
@@ -11216,52 +11222,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11291,52 +11297,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11412,18 +11418,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11432,7 +11438,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11462,18 +11468,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -11482,7 +11488,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11539,44 +11545,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11584,7 +11565,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11614,44 +11620,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11659,7 +11640,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11843,52 +11849,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11918,52 +11924,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11977,8 +11983,8 @@
   </sheetPr>
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:H30"/>
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12790,194 +12796,194 @@
       <c r="AA16" s="221"/>
     </row>
     <row r="23" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="243" t="s">
+      <c r="C23" s="227" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="243"/>
-      <c r="E23" s="243">
+      <c r="D23" s="227"/>
+      <c r="E23" s="227">
         <v>2020</v>
       </c>
-      <c r="F23" s="243">
+      <c r="F23" s="227">
         <v>2030</v>
       </c>
-      <c r="G23" s="244">
+      <c r="G23" s="228">
         <v>2040</v>
       </c>
-      <c r="H23" s="243">
+      <c r="H23" s="227">
         <v>2050</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="243" t="str">
+      <c r="C24" s="227" t="str">
         <f>C9</f>
         <v>Export PGMs - Pt</v>
       </c>
-      <c r="D24" s="243" t="s">
+      <c r="D24" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="E24" s="245">
+      <c r="E24" s="229">
         <f>T9</f>
         <v>107.43885384834891</v>
       </c>
-      <c r="F24" s="246">
+      <c r="F24" s="230">
         <f>V9</f>
         <v>140.62042040052222</v>
       </c>
-      <c r="G24" s="247">
+      <c r="G24" s="231">
         <f>Y9</f>
         <v>170.13629509932673</v>
       </c>
-      <c r="H24" s="245">
+      <c r="H24" s="229">
         <f>AA9</f>
         <v>526.83014240445232</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="243" t="str">
-        <f t="shared" ref="C25:C31" si="1">C10</f>
+      <c r="C25" s="227" t="str">
+        <f t="shared" ref="C25:C30" si="1">C10</f>
         <v>Export PGMs - Others</v>
       </c>
-      <c r="D25" s="243" t="s">
+      <c r="D25" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="245">
+      <c r="E25" s="229">
         <f t="shared" ref="E25:E30" si="2">T10</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="F25" s="246">
+      <c r="F25" s="230">
         <f t="shared" ref="F25:F30" si="3">V10</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="G25" s="247">
+      <c r="G25" s="231">
         <f t="shared" ref="G25:G30" si="4">Y10</f>
         <v>0</v>
       </c>
-      <c r="H25" s="245">
+      <c r="H25" s="229">
         <f t="shared" ref="H25:H30" si="5">AA10</f>
         <v>103.69340071046176</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="243" t="str">
+      <c r="C26" s="227" t="str">
         <f t="shared" si="1"/>
         <v>Ammonia to Export Market</v>
       </c>
-      <c r="D26" s="243" t="s">
+      <c r="D26" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="245">
+      <c r="E26" s="229">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26" s="246">
+      <c r="F26" s="230">
         <f t="shared" si="3"/>
         <v>2.7578253706754534</v>
       </c>
-      <c r="G26" s="247" t="str">
+      <c r="G26" s="231" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H26" s="245">
+      <c r="H26" s="229">
         <f t="shared" si="5"/>
         <v>124.155</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="243" t="str">
+      <c r="C27" s="227" t="str">
         <f t="shared" si="1"/>
         <v>Exports of Green Iron</v>
       </c>
-      <c r="D27" s="243" t="s">
+      <c r="D27" s="227" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="245">
+      <c r="E27" s="229">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="246">
+      <c r="F27" s="230">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G27" s="247" t="str">
+      <c r="G27" s="231" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H27" s="245">
+      <c r="H27" s="229">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="243" t="str">
+      <c r="C28" s="227" t="str">
         <f t="shared" si="1"/>
         <v>Exports of Green JetFuel</v>
       </c>
-      <c r="D28" s="243" t="s">
+      <c r="D28" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="245">
+      <c r="E28" s="229">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="246">
+      <c r="F28" s="230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28" s="247">
+      <c r="G28" s="231">
         <f t="shared" si="4"/>
         <v>5.0430461919999994</v>
       </c>
-      <c r="H28" s="245">
+      <c r="H28" s="229">
         <f t="shared" si="5"/>
         <v>10.086092383999999</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="243" t="str">
+      <c r="C29" s="227" t="str">
         <f t="shared" si="1"/>
         <v>H2 PEM Electrolyser Stack Exports (GW)</v>
       </c>
-      <c r="D29" s="243" t="s">
+      <c r="D29" s="227" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="245">
+      <c r="E29" s="229">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="246">
+      <c r="F29" s="230">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G29" s="247">
+      <c r="G29" s="231">
         <f t="shared" si="4"/>
         <v>2.3572743999999997</v>
       </c>
-      <c r="H29" s="245">
+      <c r="H29" s="229">
         <f t="shared" si="5"/>
         <v>21.333332000000002</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="243" t="str">
+      <c r="C30" s="227" t="str">
         <f t="shared" si="1"/>
         <v>H2 PEM Fuel Cell Exports (GW)</v>
       </c>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="227" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="245">
+      <c r="E30" s="229">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="246">
+      <c r="F30" s="230">
         <f t="shared" si="3"/>
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="G30" s="247">
+      <c r="G30" s="231">
         <f t="shared" si="4"/>
         <v>7.7933579200000009</v>
       </c>
-      <c r="H30" s="245">
+      <c r="H30" s="229">
         <f t="shared" si="5"/>
         <v>309.96310400000004</v>
       </c>
@@ -12991,43 +12997,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13036,32 +13017,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13091,18 +13097,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -13111,57 +13142,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13565,18 +13571,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -13585,7 +13591,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13615,18 +13621,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -13635,7 +13641,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13716,18 +13722,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13736,57 +13767,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13816,43 +13822,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13861,32 +13842,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14162,18 +14168,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233479" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -14182,57 +14213,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233473" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="233478" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233474" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233475" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="233477" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14262,43 +14268,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="233477" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -14307,32 +14288,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233478" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="233475" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="233479" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="233474" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="233473" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14789,8 +14795,8 @@
   </sheetPr>
   <dimension ref="B2:AW53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14825,19 +14831,19 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="241" t="s">
+      <c r="Q3" s="246" t="s">
         <v>260</v>
       </c>
       <c r="R3" s="199"/>
-      <c r="S3" s="227" t="s">
+      <c r="S3" s="232" t="s">
         <v>261</v>
       </c>
-      <c r="T3" s="228"/>
+      <c r="T3" s="233"/>
       <c r="U3" s="199"/>
-      <c r="V3" s="227" t="s">
+      <c r="V3" s="232" t="s">
         <v>262</v>
       </c>
-      <c r="W3" s="228"/>
+      <c r="W3" s="233"/>
       <c r="AC3" s="211"/>
       <c r="AL3" s="211" t="s">
         <v>295</v>
@@ -14859,7 +14865,7 @@
       <c r="C4" s="176" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" s="242"/>
+      <c r="Q4" s="247"/>
       <c r="R4" s="200">
         <v>2030</v>
       </c>
@@ -14993,39 +14999,39 @@
       <c r="W7" s="205">
         <v>818.30256000000008</v>
       </c>
-      <c r="AL7" s="232" t="s">
+      <c r="AL7" s="237" t="s">
         <v>298</v>
       </c>
-      <c r="AM7" s="233"/>
-      <c r="AN7" s="233"/>
-      <c r="AO7" s="234"/>
+      <c r="AM7" s="238"/>
+      <c r="AN7" s="238"/>
+      <c r="AO7" s="239"/>
     </row>
     <row r="8" spans="2:42" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="175"/>
       <c r="C8" s="175"/>
-      <c r="Q8" s="229" t="s">
+      <c r="Q8" s="234" t="s">
         <v>299</v>
       </c>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="231"/>
-      <c r="AL8" s="235" t="s">
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="236"/>
+      <c r="AL8" s="240" t="s">
         <v>296</v>
       </c>
-      <c r="AM8" s="236"/>
-      <c r="AN8" s="236"/>
-      <c r="AO8" s="237"/>
+      <c r="AM8" s="241"/>
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="242"/>
     </row>
     <row r="9" spans="2:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL9" s="238" t="s">
+      <c r="AL9" s="243" t="s">
         <v>297</v>
       </c>
-      <c r="AM9" s="239"/>
-      <c r="AN9" s="239"/>
-      <c r="AO9" s="240"/>
+      <c r="AM9" s="244"/>
+      <c r="AN9" s="244"/>
+      <c r="AO9" s="245"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AA14" s="100" t="s">
@@ -17098,8 +17104,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -17118,182 +17299,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17442,8 +17448,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17462,82 +17543,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17611,8 +17617,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17631,232 +17862,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17920,8 +17926,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17940,182 +18121,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18190,8 +18196,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18210,232 +18441,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18522,8 +18528,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18542,232 +18773,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18844,8 +18850,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -18864,182 +19045,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19125,8 +19131,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -19145,232 +19376,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22686,8 +22692,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -22706,32 +22737,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22792,18 +22798,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22812,7 +22818,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22842,18 +22848,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22862,7 +22868,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23069,18 +23075,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -23089,7 +23095,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23119,18 +23125,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -23139,7 +23145,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23212,18 +23218,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -23232,7 +23238,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23262,18 +23268,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -23282,7 +23288,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
